--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13152" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17447" uniqueCount="352">
   <si>
     <t>CXD</t>
   </si>
@@ -1114,6 +1114,9 @@
   <si>
     <t>12098</t>
   </si>
+  <si>
+    <t>21245</t>
+  </si>
 </sst>
 </file>
 
@@ -4404,10 +4407,10 @@
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="T26" t="s" s="11">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="U26" t="s" s="11">
         <v>294</v>
@@ -7768,10 +7771,10 @@
         <v>294</v>
       </c>
       <c r="S55" t="s" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T55" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="U55" t="s" s="11">
         <v>294</v>
@@ -8116,10 +8119,10 @@
         <v>294</v>
       </c>
       <c r="S58" t="s" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T58" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="U58" t="s" s="11">
         <v>294</v>
@@ -8235,7 +8238,7 @@
         <v>294</v>
       </c>
       <c r="T59" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="U59" t="s" s="11">
         <v>294</v>
@@ -8348,7 +8351,7 @@
         <v>294</v>
       </c>
       <c r="S60" t="s" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T60" t="s" s="11">
         <v>294</v>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17447" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21739" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -1117,6 +1117,78 @@
   <si>
     <t>21245</t>
   </si>
+  <si>
+    <t>9466</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>8311</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>7984</t>
+  </si>
+  <si>
+    <t>4888</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>4578</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>6746</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3720.000000</t>
+  </si>
+  <si>
+    <t>1320.000000</t>
+  </si>
+  <si>
+    <t>2400.000000</t>
+  </si>
 </sst>
 </file>
 
@@ -2596,7 +2668,7 @@
         <v>294</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="K9" t="s" s="11">
         <v>294</v>
@@ -2617,13 +2689,13 @@
         <v>294</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R9" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="T9" t="s" s="11">
         <v>294</v>
@@ -2638,7 +2710,7 @@
         <v>294</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Y9" t="s" s="11">
         <v>294</v>
@@ -2656,7 +2728,7 @@
         <v>294</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="AE9" t="s" s="11">
         <v>294</v>
@@ -2665,7 +2737,7 @@
         <v>294</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH9" t="s" s="11">
         <v>294</v>
@@ -2712,7 +2784,7 @@
         <v>294</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="K10" t="s" s="11">
         <v>294</v>
@@ -2733,13 +2805,13 @@
         <v>294</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R10" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="T10" t="s" s="11">
         <v>294</v>
@@ -2754,7 +2826,7 @@
         <v>294</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Y10" t="s" s="11">
         <v>294</v>
@@ -2772,7 +2844,7 @@
         <v>294</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="AE10" t="s" s="11">
         <v>294</v>
@@ -2781,7 +2853,7 @@
         <v>294</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH10" t="s" s="11">
         <v>294</v>
@@ -2828,7 +2900,7 @@
         <v>294</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="K11" t="s" s="11">
         <v>294</v>
@@ -2849,13 +2921,13 @@
         <v>294</v>
       </c>
       <c r="Q11" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="R11" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S11" t="s" s="11">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="T11" t="s" s="11">
         <v>294</v>
@@ -2870,7 +2942,7 @@
         <v>294</v>
       </c>
       <c r="X11" t="s" s="11">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="Y11" t="s" s="11">
         <v>294</v>
@@ -2888,7 +2960,7 @@
         <v>294</v>
       </c>
       <c r="AD11" t="s" s="11">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="AE11" t="s" s="11">
         <v>294</v>
@@ -2944,7 +3016,7 @@
         <v>294</v>
       </c>
       <c r="J12" t="s" s="11">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="K12" t="s" s="11">
         <v>294</v>
@@ -2971,7 +3043,7 @@
         <v>294</v>
       </c>
       <c r="S12" t="s" s="11">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="T12" t="s" s="11">
         <v>294</v>
@@ -2986,7 +3058,7 @@
         <v>294</v>
       </c>
       <c r="X12" t="s" s="11">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="Y12" t="s" s="11">
         <v>294</v>
@@ -3004,7 +3076,7 @@
         <v>294</v>
       </c>
       <c r="AD12" t="s" s="11">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="AE12" t="s" s="11">
         <v>294</v>
@@ -3060,7 +3132,7 @@
         <v>294</v>
       </c>
       <c r="J13" t="s" s="11">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="K13" t="s" s="11">
         <v>294</v>
@@ -3081,13 +3153,13 @@
         <v>294</v>
       </c>
       <c r="Q13" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="R13" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S13" t="s" s="11">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="T13" t="s" s="11">
         <v>294</v>
@@ -3120,7 +3192,7 @@
         <v>294</v>
       </c>
       <c r="AD13" t="s" s="11">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="AE13" t="s" s="11">
         <v>294</v>
@@ -3197,13 +3269,13 @@
         <v>294</v>
       </c>
       <c r="Q14" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R14" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S14" t="s" s="11">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="T14" t="s" s="11">
         <v>294</v>
@@ -3236,7 +3308,7 @@
         <v>294</v>
       </c>
       <c r="AD14" t="s" s="11">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="AE14" t="s" s="11">
         <v>294</v>
@@ -3313,13 +3385,13 @@
         <v>294</v>
       </c>
       <c r="Q15" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R15" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S15" t="s" s="11">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="T15" t="s" s="11">
         <v>294</v>
@@ -3352,7 +3424,7 @@
         <v>294</v>
       </c>
       <c r="AD15" t="s" s="11">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="AE15" t="s" s="11">
         <v>294</v>
@@ -3408,7 +3480,7 @@
         <v>294</v>
       </c>
       <c r="J16" t="s" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K16" t="s" s="11">
         <v>294</v>
@@ -3429,13 +3501,13 @@
         <v>294</v>
       </c>
       <c r="Q16" t="s" s="11">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="R16" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S16" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="T16" t="s" s="11">
         <v>294</v>
@@ -3450,7 +3522,7 @@
         <v>294</v>
       </c>
       <c r="X16" t="s" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Y16" t="s" s="11">
         <v>294</v>
@@ -3477,7 +3549,7 @@
         <v>294</v>
       </c>
       <c r="AG16" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH16" t="s" s="11">
         <v>294</v>
@@ -3640,7 +3712,7 @@
         <v>294</v>
       </c>
       <c r="J18" t="s" s="11">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K18" t="s" s="11">
         <v>294</v>
@@ -3661,13 +3733,13 @@
         <v>294</v>
       </c>
       <c r="Q18" t="s" s="11">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="R18" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S18" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="T18" t="s" s="11">
         <v>294</v>
@@ -3682,7 +3754,7 @@
         <v>294</v>
       </c>
       <c r="X18" t="s" s="11">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="Y18" t="s" s="11">
         <v>294</v>
@@ -3709,7 +3781,7 @@
         <v>294</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH18" t="s" s="11">
         <v>294</v>
@@ -3756,7 +3828,7 @@
         <v>294</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="K19" t="s" s="11">
         <v>294</v>
@@ -3798,7 +3870,7 @@
         <v>294</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="Y19" t="s" s="11">
         <v>294</v>
@@ -3932,7 +4004,7 @@
         <v>294</v>
       </c>
       <c r="AD20" t="s" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AE20" t="s" s="11">
         <v>294</v>
@@ -4164,7 +4236,7 @@
         <v>294</v>
       </c>
       <c r="AD22" t="s" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AE22" t="s" s="11">
         <v>294</v>
@@ -4380,7 +4452,7 @@
         <v>294</v>
       </c>
       <c r="J26" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K26" t="s" s="11">
         <v>294</v>
@@ -4401,16 +4473,16 @@
         <v>294</v>
       </c>
       <c r="Q26" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R26" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="T26" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U26" t="s" s="11">
         <v>294</v>
@@ -4440,7 +4512,7 @@
         <v>294</v>
       </c>
       <c r="AD26" t="s" s="11">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="AE26" t="s" s="11">
         <v>294</v>
@@ -4523,10 +4595,10 @@
         <v>294</v>
       </c>
       <c r="S27" t="s" s="11">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="T27" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U27" t="s" s="11">
         <v>294</v>
@@ -4556,7 +4628,7 @@
         <v>294</v>
       </c>
       <c r="AD27" t="s" s="11">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="AE27" t="s" s="11">
         <v>294</v>
@@ -4639,10 +4711,10 @@
         <v>294</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T28" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U28" t="s" s="11">
         <v>294</v>
@@ -4672,7 +4744,7 @@
         <v>294</v>
       </c>
       <c r="AD28" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE28" t="s" s="11">
         <v>294</v>
@@ -5335,7 +5407,7 @@
         <v>294</v>
       </c>
       <c r="S34" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T34" t="s" s="11">
         <v>294</v>
@@ -5716,7 +5788,7 @@
         <v>294</v>
       </c>
       <c r="AD37" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE37" t="s" s="11">
         <v>294</v>
@@ -5802,7 +5874,7 @@
         <v>294</v>
       </c>
       <c r="T38" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U38" t="s" s="11">
         <v>294</v>
@@ -6611,7 +6683,7 @@
         <v>294</v>
       </c>
       <c r="S45" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T45" t="s" s="11">
         <v>294</v>
@@ -6843,7 +6915,7 @@
         <v>294</v>
       </c>
       <c r="S47" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T47" t="s" s="11">
         <v>294</v>
@@ -6959,7 +7031,7 @@
         <v>294</v>
       </c>
       <c r="S48" t="s" s="11">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="T48" t="s" s="11">
         <v>294</v>
@@ -6992,7 +7064,7 @@
         <v>294</v>
       </c>
       <c r="AD48" t="s" s="11">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AE48" t="s" s="11">
         <v>294</v>
@@ -7075,7 +7147,7 @@
         <v>294</v>
       </c>
       <c r="S49" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T49" t="s" s="11">
         <v>294</v>
@@ -7108,7 +7180,7 @@
         <v>294</v>
       </c>
       <c r="AD49" t="s" s="11">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AE49" t="s" s="11">
         <v>294</v>
@@ -7191,7 +7263,7 @@
         <v>294</v>
       </c>
       <c r="S50" t="s" s="11">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="T50" t="s" s="11">
         <v>294</v>
@@ -7744,7 +7816,7 @@
         <v>294</v>
       </c>
       <c r="J55" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K55" t="s" s="11">
         <v>294</v>
@@ -7765,13 +7837,13 @@
         <v>294</v>
       </c>
       <c r="Q55" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R55" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S55" t="s" s="11">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T55" t="s" s="11">
         <v>294</v>
@@ -8092,7 +8164,7 @@
         <v>294</v>
       </c>
       <c r="J58" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K58" t="s" s="11">
         <v>294</v>
@@ -8113,13 +8185,13 @@
         <v>294</v>
       </c>
       <c r="Q58" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R58" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S58" t="s" s="11">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T58" t="s" s="11">
         <v>294</v>
@@ -8351,7 +8423,7 @@
         <v>294</v>
       </c>
       <c r="S60" t="s" s="11">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="T60" t="s" s="11">
         <v>294</v>
@@ -8440,7 +8512,7 @@
         <v>294</v>
       </c>
       <c r="J61" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K61" t="s" s="11">
         <v>294</v>
@@ -8467,7 +8539,7 @@
         <v>294</v>
       </c>
       <c r="S61" t="s" s="11">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="T61" t="s" s="11">
         <v>294</v>
@@ -8693,7 +8765,7 @@
         <v>294</v>
       </c>
       <c r="Q63" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R63" t="s" s="11">
         <v>294</v>
@@ -11003,7 +11075,7 @@
         <v>5512050.0</v>
       </c>
       <c r="L9" s="37" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="42" t="s">
         <v>176</v>
@@ -11015,16 +11087,16 @@
         <v>176</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" s="37" t="n">
         <v>0.0</v>
       </c>
       <c r="S9" s="37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" s="37" t="n">
         <v>0.0</v>
@@ -11036,10 +11108,10 @@
         <v>0.0</v>
       </c>
       <c r="W9" s="37" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="X9" s="37" t="n">
-        <v>2327.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" s="37" t="n">
         <v>1.0</v>
@@ -11093,7 +11165,7 @@
         <v>176</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="26" t="n">
         <v>0.0</v>
@@ -11114,10 +11186,10 @@
         <v>0.0</v>
       </c>
       <c r="W10" s="26" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" s="26" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" s="26" t="n">
         <v>0.0</v>
@@ -11171,7 +11243,7 @@
         <v>176</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="27" t="n">
         <v>0.0</v>
@@ -11192,10 +11264,10 @@
         <v>0.0</v>
       </c>
       <c r="W11" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="X11" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" s="27" t="n">
         <v>0.0</v>
@@ -11249,7 +11321,7 @@
         <v>176</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="27" t="n">
         <v>0.0</v>
@@ -11270,10 +11342,10 @@
         <v>0.0</v>
       </c>
       <c r="W12" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" s="27" t="n">
         <v>0.0</v>
@@ -11873,7 +11945,7 @@
         <v>176</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="27" t="n">
         <v>0.0</v>
@@ -11894,10 +11966,10 @@
         <v>0.0</v>
       </c>
       <c r="W20" s="27" t="n">
-        <v>3060.0</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="27" t="n">
-        <v>3060.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y20" s="27" t="n">
         <v>0.0</v>
@@ -13421,7 +13493,7 @@
         <v>1301605.0</v>
       </c>
       <c r="L40" s="27" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="44" t="s">
         <v>176</v>
@@ -13436,13 +13508,13 @@
         <v>176</v>
       </c>
       <c r="Q40" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R40" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S40" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T40" s="27" t="n">
         <v>0.0</v>
@@ -13457,7 +13529,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="27" t="n">
         <v>0.0</v>
@@ -13811,7 +13883,7 @@
         <v>12800.0</v>
       </c>
       <c r="L45" s="27" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M45" s="44" t="s">
         <v>176</v>
@@ -13826,13 +13898,13 @@
         <v>176</v>
       </c>
       <c r="Q45" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R45" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S45" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T45" s="27" t="n">
         <v>0.0</v>
@@ -13847,7 +13919,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="27" t="n">
         <v>0.0</v>
@@ -13889,7 +13961,7 @@
         <v>800.0</v>
       </c>
       <c r="L46" s="27" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M46" s="44" t="s">
         <v>176</v>
@@ -13904,13 +13976,13 @@
         <v>176</v>
       </c>
       <c r="Q46" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R46" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S46" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T46" s="27" t="n">
         <v>0.0</v>
@@ -13925,7 +13997,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="27" t="n">
         <v>0.0</v>
@@ -15545,28 +15617,28 @@
         <v>7187063.0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -15607,28 +15679,28 @@
         <v>2142855.0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -15668,29 +15740,29 @@
       <c r="I11" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>349</v>
+      <c r="J11" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R11" s="8" t="n">
         <v>1.0</v>
@@ -15979,28 +16051,28 @@
         <v>7205339.0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -16041,28 +16113,28 @@
         <v>1021524.0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>349</v>
+        <v>204</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.0</v>
@@ -16102,29 +16174,29 @@
       <c r="I18" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0.0</v>
+      <c r="J18" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>374</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.0</v>
@@ -16164,29 +16236,29 @@
       <c r="I19" s="0" t="n">
         <v>1021524.0</v>
       </c>
-      <c r="J19" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="L19" t="s" s="0">
-        <v>349</v>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.0</v>
@@ -16350,29 +16422,29 @@
       <c r="I22" s="0" t="n">
         <v>571428.0</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0.0</v>
+      <c r="J22" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0.0</v>
@@ -16474,29 +16546,29 @@
       <c r="I24" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>0.0</v>
+      <c r="J24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0.0</v>
@@ -16536,30 +16608,30 @@
       <c r="I25" s="0" t="n">
         <v>1247142.0</v>
       </c>
-      <c r="J25" t="s" s="0">
-        <v>347</v>
-      </c>
-      <c r="K25" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="L25" t="s" s="0">
-        <v>348</v>
+      <c r="J25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25" s="0" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>0.0</v>
@@ -16913,25 +16985,25 @@
         <v>204</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="M31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R31" s="8" t="n">
         <v>5527.0</v>
@@ -17249,29 +17321,29 @@
       <c r="I36" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J36" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L36" s="8" t="n">
-        <v>0.0</v>
+      <c r="J36" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="M36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N36" s="8" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" s="8" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R36" s="8" t="n">
         <v>5527.0</v>
@@ -17589,29 +17661,29 @@
       <c r="I41" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0.0</v>
+      <c r="J41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>5527.0</v>
@@ -17725,29 +17797,29 @@
       <c r="I43" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0.0</v>
+      <c r="J43" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>5527.0</v>
@@ -18133,29 +18205,29 @@
       <c r="I49" s="8" t="n">
         <v>857142.0</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>345</v>
+      <c r="J49" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M49" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N49" s="8" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O49" s="8" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P49" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q49" s="8" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="R49" s="8" t="n">
         <v>5527.0</v>
@@ -18677,29 +18749,29 @@
       <c r="I57" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J57" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="K57" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="L57" t="s" s="0">
-        <v>345</v>
+      <c r="J57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N57" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>5527.0</v>
@@ -21874,28 +21946,28 @@
         <v>2142855.0</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="M104" s="8" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N104" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O104" s="8" t="n">
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P104" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q104" s="8" t="n">
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R104" s="8" t="n">
         <v>5527.0</v>
@@ -22213,29 +22285,29 @@
       <c r="I109" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J109" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>0.0</v>
+      <c r="J109" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N109" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O109" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q109" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R109" s="0" t="n">
         <v>5527.0</v>
@@ -22349,29 +22421,29 @@
       <c r="I111" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J111" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K111" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L111" s="0" t="n">
-        <v>0.0</v>
+      <c r="J111" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R111" s="0" t="n">
         <v>5527.0</v>
@@ -22417,29 +22489,29 @@
       <c r="I112" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J112" t="s" s="0">
-        <v>347</v>
-      </c>
-      <c r="K112" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="L112" t="s" s="0">
-        <v>348</v>
+      <c r="J112" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K112" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L112" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M112" s="0" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N112" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O112" s="0" t="n">
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="P112" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q112" s="0" t="n">
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="R112" s="0" t="n">
         <v>5527.0</v>
@@ -22757,29 +22829,29 @@
       <c r="I117" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>349</v>
+      <c r="J117" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L117" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M117" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N117" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="O117" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P117" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q117" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R117" s="8" t="n">
         <v>5034.0</v>
@@ -22825,29 +22897,29 @@
       <c r="I118" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J118" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="K118" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="L118" t="s" s="0">
-        <v>349</v>
+      <c r="J118" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K118" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L118" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M118" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N118" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="O118" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P118" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q118" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R118" s="0" t="n">
         <v>5034.0</v>
@@ -22893,29 +22965,29 @@
       <c r="I119" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J119" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="K119" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="L119" t="s" s="0">
-        <v>349</v>
+      <c r="J119" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K119" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L119" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M119" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N119" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="O119" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P119" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q119" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R119" s="0" t="n">
         <v>5034.0</v>
@@ -26711,27 +26783,27 @@
       </c>
       <c r="H8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J9/(24*60*60),"[h]:mm")</f>
-        <v>0:50</v>
+        <v>0:00</v>
       </c>
       <c r="I8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>1:02</v>
       </c>
       <c r="J8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>2:12</v>
+        <v>1:02</v>
       </c>
       <c r="K8" s="26" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="26" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="M8" s="26" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="N8" s="26" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -26739,7 +26811,7 @@
       </c>
       <c r="O8" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -26782,27 +26854,27 @@
       </c>
       <c r="H9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J10/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>1:02</v>
       </c>
       <c r="J9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>1:02</v>
       </c>
       <c r="K9" s="27" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="27" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="M9" s="27" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="N9" s="27" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -26810,7 +26882,7 @@
       </c>
       <c r="O9" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -26853,7 +26925,7 @@
       </c>
       <c r="H10" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J11/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I10" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K11/(24*60*60),"[h]:mm")</f>
@@ -26861,11 +26933,11 @@
       </c>
       <c r="J10" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L11/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K10" s="27" t="n">
         <f>bc_ttnl_theo_kh!M11</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="27" t="n">
         <f>bc_ttnl_theo_kh!N11</f>
@@ -26873,7 +26945,7 @@
       </c>
       <c r="M10" s="27" t="n">
         <f>bc_ttnl_theo_kh!O11</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" s="27" t="n">
         <f>bc_ttnl_theo_kh!P11</f>
@@ -26881,7 +26953,7 @@
       </c>
       <c r="O10" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q11</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
@@ -27207,27 +27279,27 @@
       </c>
       <c r="H15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J16/(24*60*60),"[h]:mm")</f>
-        <v>0:50</v>
+        <v>0:00</v>
       </c>
       <c r="I15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>1:02</v>
       </c>
       <c r="J15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>2:12</v>
+        <v>1:02</v>
       </c>
       <c r="K15" s="27" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" s="27" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="M15" s="27" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="N15" s="27" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -27235,7 +27307,7 @@
       </c>
       <c r="O15" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="22"/>
@@ -27277,27 +27349,27 @@
       </c>
       <c r="H16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J17/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:22</v>
       </c>
       <c r="K16" s="27" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" s="27" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M16" s="27" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N16" s="27" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -27305,7 +27377,7 @@
       </c>
       <c r="O16" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="24"/>
@@ -27351,11 +27423,11 @@
       </c>
       <c r="I17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K18/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L18/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K17" s="27" t="n">
         <f>bc_ttnl_theo_kh!M18</f>
@@ -27363,11 +27435,11 @@
       </c>
       <c r="L17" s="27" t="n">
         <f>bc_ttnl_theo_kh!N18</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M17" s="27" t="n">
         <f>bc_ttnl_theo_kh!O18</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N17" s="27" t="n">
         <f>bc_ttnl_theo_kh!P18</f>
@@ -27375,7 +27447,7 @@
       </c>
       <c r="O17" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q18</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="24"/>
@@ -27417,7 +27489,7 @@
       </c>
       <c r="H18" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J19/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I18" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K19/(24*60*60),"[h]:mm")</f>
@@ -27425,11 +27497,11 @@
       </c>
       <c r="J18" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L19/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K18" s="27" t="n">
         <f>bc_ttnl_theo_kh!M19</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" s="27" t="n">
         <f>bc_ttnl_theo_kh!N19</f>
@@ -27437,7 +27509,7 @@
       </c>
       <c r="M18" s="27" t="n">
         <f>bc_ttnl_theo_kh!O19</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" s="27" t="n">
         <f>bc_ttnl_theo_kh!P19</f>
@@ -27445,7 +27517,7 @@
       </c>
       <c r="O18" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q19</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="24"/>
@@ -27631,11 +27703,11 @@
       </c>
       <c r="I21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K22/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L22/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K21" s="27" t="n">
         <f>bc_ttnl_theo_kh!M22</f>
@@ -27643,11 +27715,11 @@
       </c>
       <c r="L21" s="27" t="n">
         <f>bc_ttnl_theo_kh!N22</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M21" s="27" t="n">
         <f>bc_ttnl_theo_kh!O22</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N21" s="27" t="n">
         <f>bc_ttnl_theo_kh!P22</f>
@@ -27655,7 +27727,7 @@
       </c>
       <c r="O21" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q22</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="24"/>
@@ -27771,11 +27843,11 @@
       </c>
       <c r="I23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K24/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L24/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K23" s="27" t="n">
         <f>bc_ttnl_theo_kh!M24</f>
@@ -27783,11 +27855,11 @@
       </c>
       <c r="L23" s="27" t="n">
         <f>bc_ttnl_theo_kh!N24</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M23" s="27" t="n">
         <f>bc_ttnl_theo_kh!O24</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N23" s="27" t="n">
         <f>bc_ttnl_theo_kh!P24</f>
@@ -27795,7 +27867,7 @@
       </c>
       <c r="O23" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q24</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="24"/>
@@ -27837,27 +27909,27 @@
       </c>
       <c r="H24" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J25/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I24" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K25/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J24" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L25/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>0:00</v>
       </c>
       <c r="K24" s="27" t="n">
         <f>bc_ttnl_theo_kh!M25</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" s="27" t="n">
         <f>bc_ttnl_theo_kh!N25</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="27" t="n">
         <f>bc_ttnl_theo_kh!O25</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" s="27" t="n">
         <f>bc_ttnl_theo_kh!P25</f>
@@ -27865,7 +27937,7 @@
       </c>
       <c r="O24" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q25</f>
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="24"/>
@@ -28261,11 +28333,11 @@
       </c>
       <c r="I30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K31/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:40</v>
       </c>
       <c r="J30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L31/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:40</v>
       </c>
       <c r="K30" s="26" t="n">
         <f>bc_ttnl_theo_kh!M31</f>
@@ -28273,11 +28345,11 @@
       </c>
       <c r="L30" s="26" t="n">
         <f>bc_ttnl_theo_kh!N31</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M30" s="26" t="n">
         <f>bc_ttnl_theo_kh!O31</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N30" s="26" t="n">
         <f>bc_ttnl_theo_kh!P31</f>
@@ -28285,7 +28357,7 @@
       </c>
       <c r="O30" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q31</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="22"/>
@@ -28643,11 +28715,11 @@
       </c>
       <c r="I35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K36/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L36/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K35" s="26" t="n">
         <f>bc_ttnl_theo_kh!M36</f>
@@ -28655,11 +28727,11 @@
       </c>
       <c r="L35" s="26" t="n">
         <f>bc_ttnl_theo_kh!N36</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M35" s="26" t="n">
         <f>bc_ttnl_theo_kh!O36</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N35" s="26" t="n">
         <f>bc_ttnl_theo_kh!P36</f>
@@ -28667,7 +28739,7 @@
       </c>
       <c r="O35" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q36</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="22"/>
@@ -29013,11 +29085,11 @@
       </c>
       <c r="I40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K41/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L41/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K40" s="27" t="n">
         <f>bc_ttnl_theo_kh!M41</f>
@@ -29025,11 +29097,11 @@
       </c>
       <c r="L40" s="27" t="n">
         <f>bc_ttnl_theo_kh!N41</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M40" s="27" t="n">
         <f>bc_ttnl_theo_kh!O41</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N40" s="27" t="n">
         <f>bc_ttnl_theo_kh!P41</f>
@@ -29037,7 +29109,7 @@
       </c>
       <c r="O40" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q41</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="24"/>
@@ -29161,11 +29233,11 @@
       </c>
       <c r="I42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K43/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L43/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K42" s="27" t="n">
         <f>bc_ttnl_theo_kh!M43</f>
@@ -29173,11 +29245,11 @@
       </c>
       <c r="L42" s="27" t="n">
         <f>bc_ttnl_theo_kh!N43</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M42" s="27" t="n">
         <f>bc_ttnl_theo_kh!O43</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N42" s="27" t="n">
         <f>bc_ttnl_theo_kh!P43</f>
@@ -29185,7 +29257,7 @@
       </c>
       <c r="O42" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q43</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="24"/>
@@ -29605,11 +29677,11 @@
       </c>
       <c r="I48" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K49/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J48" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L49/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="K48" s="26" t="n">
         <f>bc_ttnl_theo_kh!M49</f>
@@ -29617,11 +29689,11 @@
       </c>
       <c r="L48" s="26" t="n">
         <f>bc_ttnl_theo_kh!N49</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M48" s="26" t="n">
         <f>bc_ttnl_theo_kh!O49</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="N48" s="26" t="n">
         <f>bc_ttnl_theo_kh!P49</f>
@@ -29629,7 +29701,7 @@
       </c>
       <c r="O48" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q49</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P48" s="27"/>
       <c r="Q48" s="22"/>
@@ -30197,11 +30269,11 @@
       </c>
       <c r="I56" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K57/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J56" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L57/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="K56" s="27" t="n">
         <f>bc_ttnl_theo_kh!M57</f>
@@ -30209,11 +30281,11 @@
       </c>
       <c r="L56" s="27" t="n">
         <f>bc_ttnl_theo_kh!N57</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M56" s="27" t="n">
         <f>bc_ttnl_theo_kh!O57</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="N56" s="27" t="n">
         <f>bc_ttnl_theo_kh!P57</f>
@@ -30221,7 +30293,7 @@
       </c>
       <c r="O56" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q57</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P56" s="27"/>
       <c r="Q56" s="24"/>
@@ -33674,27 +33746,27 @@
       </c>
       <c r="H103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J104/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K104/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:40</v>
       </c>
       <c r="J103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L104/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>0:40</v>
       </c>
       <c r="K103" s="26" t="n">
         <f>bc_ttnl_theo_kh!M104</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L103" s="26" t="n">
         <f>bc_ttnl_theo_kh!N104</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M103" s="26" t="n">
         <f>bc_ttnl_theo_kh!O104</f>
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N103" s="26" t="n">
         <f>bc_ttnl_theo_kh!P104</f>
@@ -33702,7 +33774,7 @@
       </c>
       <c r="O103" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q104</f>
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P103" s="27"/>
       <c r="Q103" s="22"/>
@@ -34048,11 +34120,11 @@
       </c>
       <c r="I108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K109/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L109/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K108" s="27" t="n">
         <f>bc_ttnl_theo_kh!M109</f>
@@ -34060,11 +34132,11 @@
       </c>
       <c r="L108" s="27" t="n">
         <f>bc_ttnl_theo_kh!N109</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M108" s="27" t="n">
         <f>bc_ttnl_theo_kh!O109</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N108" s="27" t="n">
         <f>bc_ttnl_theo_kh!P109</f>
@@ -34072,7 +34144,7 @@
       </c>
       <c r="O108" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q109</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P108" s="27"/>
       <c r="Q108" s="24"/>
@@ -34196,11 +34268,11 @@
       </c>
       <c r="I110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K111/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L111/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K110" s="27" t="n">
         <f>bc_ttnl_theo_kh!M111</f>
@@ -34208,11 +34280,11 @@
       </c>
       <c r="L110" s="27" t="n">
         <f>bc_ttnl_theo_kh!N111</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M110" s="27" t="n">
         <f>bc_ttnl_theo_kh!O111</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N110" s="27" t="n">
         <f>bc_ttnl_theo_kh!P111</f>
@@ -34220,7 +34292,7 @@
       </c>
       <c r="O110" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q111</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P110" s="27"/>
       <c r="Q110" s="24"/>
@@ -34266,27 +34338,27 @@
       </c>
       <c r="H111" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J112/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I111" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K112/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J111" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L112/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>0:00</v>
       </c>
       <c r="K111" s="27" t="n">
         <f>bc_ttnl_theo_kh!M112</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L111" s="27" t="n">
         <f>bc_ttnl_theo_kh!N112</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M111" s="27" t="n">
         <f>bc_ttnl_theo_kh!O112</f>
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="N111" s="27" t="n">
         <f>bc_ttnl_theo_kh!P112</f>
@@ -34294,7 +34366,7 @@
       </c>
       <c r="O111" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q112</f>
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="P111" s="27"/>
       <c r="Q111" s="24"/>
@@ -34636,7 +34708,7 @@
       </c>
       <c r="H116" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J117/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I116" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K117/(24*60*60),"[h]:mm")</f>
@@ -34644,11 +34716,11 @@
       </c>
       <c r="J116" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L117/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K116" s="26" t="n">
         <f>bc_ttnl_theo_kh!M117</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L116" s="26" t="n">
         <f>bc_ttnl_theo_kh!N117</f>
@@ -34656,7 +34728,7 @@
       </c>
       <c r="M116" s="26" t="n">
         <f>bc_ttnl_theo_kh!O117</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N116" s="26" t="n">
         <f>bc_ttnl_theo_kh!P117</f>
@@ -34664,7 +34736,7 @@
       </c>
       <c r="O116" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q117</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P116" s="27"/>
       <c r="Q116" s="22"/>
@@ -34710,7 +34782,7 @@
       </c>
       <c r="H117" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J118/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I117" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K118/(24*60*60),"[h]:mm")</f>
@@ -34718,11 +34790,11 @@
       </c>
       <c r="J117" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L118/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K117" s="27" t="n">
         <f>bc_ttnl_theo_kh!M118</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L117" s="27" t="n">
         <f>bc_ttnl_theo_kh!N118</f>
@@ -34730,7 +34802,7 @@
       </c>
       <c r="M117" s="27" t="n">
         <f>bc_ttnl_theo_kh!O118</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N117" s="27" t="n">
         <f>bc_ttnl_theo_kh!P118</f>
@@ -34738,7 +34810,7 @@
       </c>
       <c r="O117" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q118</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P117" s="27"/>
       <c r="Q117" s="24"/>
@@ -34784,7 +34856,7 @@
       </c>
       <c r="H118" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J119/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I118" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K119/(24*60*60),"[h]:mm")</f>
@@ -34792,11 +34864,11 @@
       </c>
       <c r="J118" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L119/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K118" s="27" t="n">
         <f>bc_ttnl_theo_kh!M119</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L118" s="27" t="n">
         <f>bc_ttnl_theo_kh!N119</f>
@@ -34804,7 +34876,7 @@
       </c>
       <c r="M118" s="27" t="n">
         <f>bc_ttnl_theo_kh!O119</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N118" s="27" t="n">
         <f>bc_ttnl_theo_kh!P119</f>
@@ -34812,7 +34884,7 @@
       </c>
       <c r="O118" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q119</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P118" s="27"/>
       <c r="Q118" s="24"/>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21739" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30239" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -2668,7 +2668,7 @@
         <v>294</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K9" t="s" s="11">
         <v>294</v>
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="T9" t="s" s="11">
         <v>294</v>
@@ -2728,7 +2728,7 @@
         <v>294</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="AE9" t="s" s="11">
         <v>294</v>
@@ -2737,7 +2737,7 @@
         <v>294</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH9" t="s" s="11">
         <v>294</v>
@@ -2784,7 +2784,7 @@
         <v>294</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K10" t="s" s="11">
         <v>294</v>
@@ -2811,7 +2811,7 @@
         <v>294</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="T10" t="s" s="11">
         <v>294</v>
@@ -2844,7 +2844,7 @@
         <v>294</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="AE10" t="s" s="11">
         <v>294</v>
@@ -2853,7 +2853,7 @@
         <v>294</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH10" t="s" s="11">
         <v>294</v>
@@ -2900,7 +2900,7 @@
         <v>294</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s" s="11">
         <v>294</v>
@@ -2927,7 +2927,7 @@
         <v>294</v>
       </c>
       <c r="S11" t="s" s="11">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="T11" t="s" s="11">
         <v>294</v>
@@ -2960,7 +2960,7 @@
         <v>294</v>
       </c>
       <c r="AD11" t="s" s="11">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AE11" t="s" s="11">
         <v>294</v>
@@ -3016,7 +3016,7 @@
         <v>294</v>
       </c>
       <c r="J12" t="s" s="11">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="K12" t="s" s="11">
         <v>294</v>
@@ -3043,7 +3043,7 @@
         <v>294</v>
       </c>
       <c r="S12" t="s" s="11">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="T12" t="s" s="11">
         <v>294</v>
@@ -3076,7 +3076,7 @@
         <v>294</v>
       </c>
       <c r="AD12" t="s" s="11">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="AE12" t="s" s="11">
         <v>294</v>
@@ -3132,7 +3132,7 @@
         <v>294</v>
       </c>
       <c r="J13" t="s" s="11">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="K13" t="s" s="11">
         <v>294</v>
@@ -3159,7 +3159,7 @@
         <v>294</v>
       </c>
       <c r="S13" t="s" s="11">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="T13" t="s" s="11">
         <v>294</v>
@@ -3192,7 +3192,7 @@
         <v>294</v>
       </c>
       <c r="AD13" t="s" s="11">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="AE13" t="s" s="11">
         <v>294</v>
@@ -3275,7 +3275,7 @@
         <v>294</v>
       </c>
       <c r="S14" t="s" s="11">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="T14" t="s" s="11">
         <v>294</v>
@@ -3308,7 +3308,7 @@
         <v>294</v>
       </c>
       <c r="AD14" t="s" s="11">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AE14" t="s" s="11">
         <v>294</v>
@@ -3391,7 +3391,7 @@
         <v>294</v>
       </c>
       <c r="S15" t="s" s="11">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="T15" t="s" s="11">
         <v>294</v>
@@ -3424,7 +3424,7 @@
         <v>294</v>
       </c>
       <c r="AD15" t="s" s="11">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AE15" t="s" s="11">
         <v>294</v>
@@ -3549,7 +3549,7 @@
         <v>294</v>
       </c>
       <c r="AG16" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH16" t="s" s="11">
         <v>294</v>
@@ -3781,7 +3781,7 @@
         <v>294</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH18" t="s" s="11">
         <v>294</v>
@@ -4479,7 +4479,7 @@
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="T26" t="s" s="11">
         <v>294</v>
@@ -4512,7 +4512,7 @@
         <v>294</v>
       </c>
       <c r="AD26" t="s" s="11">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="AE26" t="s" s="11">
         <v>294</v>
@@ -4595,7 +4595,7 @@
         <v>294</v>
       </c>
       <c r="S27" t="s" s="11">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="T27" t="s" s="11">
         <v>294</v>
@@ -4628,7 +4628,7 @@
         <v>294</v>
       </c>
       <c r="AD27" t="s" s="11">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="AE27" t="s" s="11">
         <v>294</v>
@@ -4711,7 +4711,7 @@
         <v>294</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T28" t="s" s="11">
         <v>294</v>
@@ -4744,7 +4744,7 @@
         <v>294</v>
       </c>
       <c r="AD28" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE28" t="s" s="11">
         <v>294</v>
@@ -5407,7 +5407,7 @@
         <v>294</v>
       </c>
       <c r="S34" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T34" t="s" s="11">
         <v>294</v>
@@ -5788,7 +5788,7 @@
         <v>294</v>
       </c>
       <c r="AD37" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE37" t="s" s="11">
         <v>294</v>
@@ -6683,7 +6683,7 @@
         <v>294</v>
       </c>
       <c r="S45" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T45" t="s" s="11">
         <v>294</v>
@@ -6915,7 +6915,7 @@
         <v>294</v>
       </c>
       <c r="S47" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T47" t="s" s="11">
         <v>294</v>
@@ -7031,7 +7031,7 @@
         <v>294</v>
       </c>
       <c r="S48" t="s" s="11">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="T48" t="s" s="11">
         <v>294</v>
@@ -7064,7 +7064,7 @@
         <v>294</v>
       </c>
       <c r="AD48" t="s" s="11">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AE48" t="s" s="11">
         <v>294</v>
@@ -7147,7 +7147,7 @@
         <v>294</v>
       </c>
       <c r="S49" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T49" t="s" s="11">
         <v>294</v>
@@ -7180,7 +7180,7 @@
         <v>294</v>
       </c>
       <c r="AD49" t="s" s="11">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AE49" t="s" s="11">
         <v>294</v>
@@ -7263,7 +7263,7 @@
         <v>294</v>
       </c>
       <c r="S50" t="s" s="11">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T50" t="s" s="11">
         <v>294</v>
@@ -7843,7 +7843,7 @@
         <v>294</v>
       </c>
       <c r="S55" t="s" s="11">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="T55" t="s" s="11">
         <v>294</v>
@@ -8191,7 +8191,7 @@
         <v>294</v>
       </c>
       <c r="S58" t="s" s="11">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="T58" t="s" s="11">
         <v>294</v>
@@ -8423,7 +8423,7 @@
         <v>294</v>
       </c>
       <c r="S60" t="s" s="11">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="T60" t="s" s="11">
         <v>294</v>
@@ -8539,7 +8539,7 @@
         <v>294</v>
       </c>
       <c r="S61" t="s" s="11">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="T61" t="s" s="11">
         <v>294</v>
@@ -15616,29 +15616,29 @@
       <c r="I9" s="8" t="n">
         <v>7187063.0</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>373</v>
+      <c r="J9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -15678,29 +15678,29 @@
       <c r="I10" s="8" t="n">
         <v>2142855.0</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>373</v>
+      <c r="J10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -16050,29 +16050,29 @@
       <c r="I16" s="8" t="n">
         <v>7205339.0</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>373</v>
+      <c r="J16" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -16112,29 +16112,29 @@
       <c r="I17" s="0" t="n">
         <v>1021524.0</v>
       </c>
-      <c r="J17" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>374</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>374</v>
+      <c r="J17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.0</v>
@@ -16174,29 +16174,29 @@
       <c r="I18" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>374</v>
+      <c r="J18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.0</v>
@@ -16422,29 +16422,29 @@
       <c r="I22" s="0" t="n">
         <v>571428.0</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>375</v>
+      <c r="J22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0.0</v>
@@ -16546,29 +16546,29 @@
       <c r="I24" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>375</v>
+      <c r="J24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0.0</v>
@@ -16981,29 +16981,29 @@
       <c r="I31" s="8" t="n">
         <v>7205339.0</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>375</v>
+      <c r="J31" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R31" s="8" t="n">
         <v>5527.0</v>
@@ -17321,29 +17321,29 @@
       <c r="I36" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>375</v>
+      <c r="J36" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N36" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R36" s="8" t="n">
         <v>5527.0</v>
@@ -17661,29 +17661,29 @@
       <c r="I41" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>375</v>
+      <c r="J41" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>5527.0</v>
@@ -17797,29 +17797,29 @@
       <c r="I43" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J43" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>375</v>
+      <c r="J43" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>5527.0</v>
@@ -21945,29 +21945,29 @@
       <c r="I104" s="8" t="n">
         <v>2142855.0</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>375</v>
+      <c r="J104" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L104" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M104" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N104" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O104" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P104" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q104" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R104" s="8" t="n">
         <v>5527.0</v>
@@ -22285,29 +22285,29 @@
       <c r="I109" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J109" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K109" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L109" s="0" t="s">
-        <v>375</v>
+      <c r="J109" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N109" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O109" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q109" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R109" s="0" t="n">
         <v>5527.0</v>
@@ -22421,29 +22421,29 @@
       <c r="I111" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J111" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L111" s="0" t="s">
-        <v>375</v>
+      <c r="J111" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R111" s="0" t="n">
         <v>5527.0</v>
@@ -26787,11 +26787,11 @@
       </c>
       <c r="I8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="J8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="K8" s="26" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="L8" s="26" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="26" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" s="26" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="O8" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -26858,11 +26858,11 @@
       </c>
       <c r="I9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="J9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="K9" s="27" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
@@ -26870,11 +26870,11 @@
       </c>
       <c r="L9" s="27" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="27" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="27" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="O9" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -27283,11 +27283,11 @@
       </c>
       <c r="I15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="J15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="K15" s="27" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
@@ -27295,11 +27295,11 @@
       </c>
       <c r="L15" s="27" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" s="27" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" s="27" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -27307,7 +27307,7 @@
       </c>
       <c r="O15" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="22"/>
@@ -27353,11 +27353,11 @@
       </c>
       <c r="I16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="J16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="K16" s="27" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
@@ -27365,11 +27365,11 @@
       </c>
       <c r="L16" s="27" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="27" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="27" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -27377,7 +27377,7 @@
       </c>
       <c r="O16" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="24"/>
@@ -27423,11 +27423,11 @@
       </c>
       <c r="I17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K18/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="J17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L18/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="K17" s="27" t="n">
         <f>bc_ttnl_theo_kh!M18</f>
@@ -27435,11 +27435,11 @@
       </c>
       <c r="L17" s="27" t="n">
         <f>bc_ttnl_theo_kh!N18</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="27" t="n">
         <f>bc_ttnl_theo_kh!O18</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="27" t="n">
         <f>bc_ttnl_theo_kh!P18</f>
@@ -27447,7 +27447,7 @@
       </c>
       <c r="O17" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q18</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="24"/>
@@ -27703,11 +27703,11 @@
       </c>
       <c r="I21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K22/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L22/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K21" s="27" t="n">
         <f>bc_ttnl_theo_kh!M22</f>
@@ -27715,11 +27715,11 @@
       </c>
       <c r="L21" s="27" t="n">
         <f>bc_ttnl_theo_kh!N22</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M21" s="27" t="n">
         <f>bc_ttnl_theo_kh!O22</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N21" s="27" t="n">
         <f>bc_ttnl_theo_kh!P22</f>
@@ -27727,7 +27727,7 @@
       </c>
       <c r="O21" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q22</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="24"/>
@@ -27843,11 +27843,11 @@
       </c>
       <c r="I23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K24/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L24/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K23" s="27" t="n">
         <f>bc_ttnl_theo_kh!M24</f>
@@ -27855,11 +27855,11 @@
       </c>
       <c r="L23" s="27" t="n">
         <f>bc_ttnl_theo_kh!N24</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M23" s="27" t="n">
         <f>bc_ttnl_theo_kh!O24</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23" s="27" t="n">
         <f>bc_ttnl_theo_kh!P24</f>
@@ -27867,7 +27867,7 @@
       </c>
       <c r="O23" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q24</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="24"/>
@@ -28333,11 +28333,11 @@
       </c>
       <c r="I30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K31/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L31/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K30" s="26" t="n">
         <f>bc_ttnl_theo_kh!M31</f>
@@ -28345,11 +28345,11 @@
       </c>
       <c r="L30" s="26" t="n">
         <f>bc_ttnl_theo_kh!N31</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" s="26" t="n">
         <f>bc_ttnl_theo_kh!O31</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" s="26" t="n">
         <f>bc_ttnl_theo_kh!P31</f>
@@ -28357,7 +28357,7 @@
       </c>
       <c r="O30" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q31</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="22"/>
@@ -28715,11 +28715,11 @@
       </c>
       <c r="I35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K36/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L36/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K35" s="26" t="n">
         <f>bc_ttnl_theo_kh!M36</f>
@@ -28727,11 +28727,11 @@
       </c>
       <c r="L35" s="26" t="n">
         <f>bc_ttnl_theo_kh!N36</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M35" s="26" t="n">
         <f>bc_ttnl_theo_kh!O36</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N35" s="26" t="n">
         <f>bc_ttnl_theo_kh!P36</f>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="O35" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q36</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="22"/>
@@ -29085,11 +29085,11 @@
       </c>
       <c r="I40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K41/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L41/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K40" s="27" t="n">
         <f>bc_ttnl_theo_kh!M41</f>
@@ -29097,11 +29097,11 @@
       </c>
       <c r="L40" s="27" t="n">
         <f>bc_ttnl_theo_kh!N41</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="27" t="n">
         <f>bc_ttnl_theo_kh!O41</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="27" t="n">
         <f>bc_ttnl_theo_kh!P41</f>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="O40" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q41</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="24"/>
@@ -29233,11 +29233,11 @@
       </c>
       <c r="I42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K43/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L43/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K42" s="27" t="n">
         <f>bc_ttnl_theo_kh!M43</f>
@@ -29245,11 +29245,11 @@
       </c>
       <c r="L42" s="27" t="n">
         <f>bc_ttnl_theo_kh!N43</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M42" s="27" t="n">
         <f>bc_ttnl_theo_kh!O43</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N42" s="27" t="n">
         <f>bc_ttnl_theo_kh!P43</f>
@@ -29257,7 +29257,7 @@
       </c>
       <c r="O42" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q43</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="24"/>
@@ -33750,11 +33750,11 @@
       </c>
       <c r="I103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K104/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L104/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K103" s="26" t="n">
         <f>bc_ttnl_theo_kh!M104</f>
@@ -33762,11 +33762,11 @@
       </c>
       <c r="L103" s="26" t="n">
         <f>bc_ttnl_theo_kh!N104</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M103" s="26" t="n">
         <f>bc_ttnl_theo_kh!O104</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N103" s="26" t="n">
         <f>bc_ttnl_theo_kh!P104</f>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="O103" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q104</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P103" s="27"/>
       <c r="Q103" s="22"/>
@@ -34120,11 +34120,11 @@
       </c>
       <c r="I108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K109/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L109/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K108" s="27" t="n">
         <f>bc_ttnl_theo_kh!M109</f>
@@ -34132,11 +34132,11 @@
       </c>
       <c r="L108" s="27" t="n">
         <f>bc_ttnl_theo_kh!N109</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M108" s="27" t="n">
         <f>bc_ttnl_theo_kh!O109</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N108" s="27" t="n">
         <f>bc_ttnl_theo_kh!P109</f>
@@ -34144,7 +34144,7 @@
       </c>
       <c r="O108" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q109</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P108" s="27"/>
       <c r="Q108" s="24"/>
@@ -34268,11 +34268,11 @@
       </c>
       <c r="I110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K111/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L111/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K110" s="27" t="n">
         <f>bc_ttnl_theo_kh!M111</f>
@@ -34280,11 +34280,11 @@
       </c>
       <c r="L110" s="27" t="n">
         <f>bc_ttnl_theo_kh!N111</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M110" s="27" t="n">
         <f>bc_ttnl_theo_kh!O111</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N110" s="27" t="n">
         <f>bc_ttnl_theo_kh!P111</f>
@@ -34292,7 +34292,7 @@
       </c>
       <c r="O110" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q111</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P110" s="27"/>
       <c r="Q110" s="24"/>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30239" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32965" uniqueCount="384">
   <si>
     <t>CXD</t>
   </si>
@@ -1189,6 +1189,30 @@
   <si>
     <t>2400.000000</t>
   </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
 </sst>
 </file>
 
@@ -2489,76 +2513,76 @@
       <c r="J7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="11">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="11">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="11">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="11">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="11">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="11">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="11">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="11">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="11">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="11">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="11">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="11">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="11">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="11">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="11">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="11">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="11">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="11">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="11">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="11">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="11">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="11">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="11">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="11">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2569,76 +2593,76 @@
       <c r="J8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="11">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="11">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="11">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="11">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="11">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="11">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="11">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="11">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="11">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="11">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="11">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="11">
+      <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" t="s" s="11">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="11">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="11">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="11">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="11">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="11">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="11">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="11">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="11">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="11">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="11">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2656,13 +2680,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s" s="11">
         <v>294</v>
@@ -2710,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="Y9" t="s" s="11">
         <v>294</v>
@@ -2728,16 +2752,16 @@
         <v>294</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="AE9" t="s" s="11">
         <v>294</v>
       </c>
       <c r="AF9" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH9" t="s" s="11">
         <v>294</v>
@@ -2772,13 +2796,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s" s="11">
         <v>294</v>
@@ -2826,7 +2850,7 @@
         <v>294</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="Y10" t="s" s="11">
         <v>294</v>
@@ -2844,16 +2868,16 @@
         <v>294</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="AE10" t="s" s="11">
         <v>294</v>
       </c>
       <c r="AF10" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH10" t="s" s="11">
         <v>294</v>
@@ -2888,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="11">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G11" t="s" s="11">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s" s="11">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s" s="11">
         <v>294</v>
@@ -2942,7 +2966,7 @@
         <v>294</v>
       </c>
       <c r="X11" t="s" s="11">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="Y11" t="s" s="11">
         <v>294</v>
@@ -2960,7 +2984,7 @@
         <v>294</v>
       </c>
       <c r="AD11" t="s" s="11">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="AE11" t="s" s="11">
         <v>294</v>
@@ -3058,7 +3082,7 @@
         <v>294</v>
       </c>
       <c r="X12" t="s" s="11">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="Y12" t="s" s="11">
         <v>294</v>
@@ -3076,7 +3100,7 @@
         <v>294</v>
       </c>
       <c r="AD12" t="s" s="11">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="AE12" t="s" s="11">
         <v>294</v>
@@ -3120,13 +3144,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I13" t="s" s="11">
         <v>294</v>
@@ -3174,7 +3198,7 @@
         <v>294</v>
       </c>
       <c r="X13" t="s" s="11">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="Y13" t="s" s="11">
         <v>294</v>
@@ -3192,7 +3216,7 @@
         <v>294</v>
       </c>
       <c r="AD13" t="s" s="11">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="AE13" t="s" s="11">
         <v>294</v>
@@ -3314,7 +3338,7 @@
         <v>294</v>
       </c>
       <c r="AF14" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG14" t="s" s="11">
         <v>294</v>
@@ -3430,7 +3454,7 @@
         <v>294</v>
       </c>
       <c r="AF15" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG15" t="s" s="11">
         <v>294</v>
@@ -4013,7 +4037,7 @@
         <v>294</v>
       </c>
       <c r="AG20" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH20" t="s" s="11">
         <v>294</v>
@@ -4129,7 +4153,7 @@
         <v>294</v>
       </c>
       <c r="AG21" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH21" t="s" s="11">
         <v>294</v>
@@ -4273,76 +4297,76 @@
       <c r="J24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="11">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="11">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="11">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="11">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="11">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="11">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="11">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="11">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="11">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="11">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="11">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="11">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="11">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="11">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="11">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="11">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="11">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="11">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="11">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="11">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="11">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="11">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="11">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="11">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4353,76 +4377,76 @@
       <c r="J25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="11">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="11">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="11">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="11">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="11">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="11">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="11">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="11">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="11">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="11">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="11">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="11">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="11">
+      <c r="W25" t="s">
         <v>0</v>
       </c>
-      <c r="X25" t="s" s="11">
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="11">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="11">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="11">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="11">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="11">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="11">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="11">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="11">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="11">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="11">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32965" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92937" uniqueCount="409">
   <si>
     <t>CXD</t>
   </si>
@@ -1212,6 +1212,81 @@
   </si>
   <si>
     <t>1232</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>440000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>46992</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>125232</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>37992</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>480000</t>
+  </si>
+  <si>
+    <t>23002</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>100779</t>
+  </si>
+  <si>
+    <t>77777</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>445000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>75000</t>
   </si>
 </sst>
 </file>
@@ -2680,19 +2755,19 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="I9" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="K9" t="s" s="11">
         <v>294</v>
@@ -2713,16 +2788,16 @@
         <v>294</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="R9" t="s" s="11">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T9" t="s" s="11">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="U9" t="s" s="11">
         <v>294</v>
@@ -2746,7 +2821,7 @@
         <v>294</v>
       </c>
       <c r="AB9" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC9" t="s" s="11">
         <v>294</v>
@@ -2796,19 +2871,19 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="I10" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="K10" t="s" s="11">
         <v>294</v>
@@ -2829,16 +2904,16 @@
         <v>294</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="R10" t="s" s="11">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T10" t="s" s="11">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="U10" t="s" s="11">
         <v>294</v>
@@ -2862,7 +2937,7 @@
         <v>294</v>
       </c>
       <c r="AB10" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC10" t="s" s="11">
         <v>294</v>
@@ -2912,19 +2987,19 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G11" t="s" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s" s="11">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="I11" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="K11" t="s" s="11">
         <v>294</v>
@@ -2945,16 +3020,16 @@
         <v>294</v>
       </c>
       <c r="Q11" t="s" s="11">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="R11" t="s" s="11">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="S11" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T11" t="s" s="11">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="U11" t="s" s="11">
         <v>294</v>
@@ -2978,7 +3053,7 @@
         <v>294</v>
       </c>
       <c r="AB11" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC11" t="s" s="11">
         <v>294</v>
@@ -3028,13 +3103,13 @@
         <v>30</v>
       </c>
       <c r="F12" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H12" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s" s="11">
         <v>294</v>
@@ -3061,16 +3136,16 @@
         <v>294</v>
       </c>
       <c r="Q12" t="s" s="11">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="R12" t="s" s="11">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="S12" t="s" s="11">
         <v>294</v>
       </c>
       <c r="T12" t="s" s="11">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="U12" t="s" s="11">
         <v>294</v>
@@ -3144,19 +3219,19 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G13" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s" s="11">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J13" t="s" s="11">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="K13" t="s" s="11">
         <v>294</v>
@@ -3177,13 +3252,13 @@
         <v>294</v>
       </c>
       <c r="Q13" t="s" s="11">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="R13" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S13" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T13" t="s" s="11">
         <v>294</v>
@@ -3210,7 +3285,7 @@
         <v>294</v>
       </c>
       <c r="AB13" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC13" t="s" s="11">
         <v>294</v>
@@ -3260,13 +3335,13 @@
         <v>32</v>
       </c>
       <c r="F14" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s" s="11">
         <v>294</v>
@@ -3296,7 +3371,7 @@
         <v>294</v>
       </c>
       <c r="R14" t="s" s="11">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="S14" t="s" s="11">
         <v>294</v>
@@ -3376,13 +3451,13 @@
         <v>33</v>
       </c>
       <c r="F15" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I15" t="s" s="11">
         <v>294</v>
@@ -3412,7 +3487,7 @@
         <v>294</v>
       </c>
       <c r="R15" t="s" s="11">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="S15" t="s" s="11">
         <v>294</v>
@@ -3492,49 +3567,49 @@
         <v>34</v>
       </c>
       <c r="F16" t="s" s="11">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G16" t="s" s="11">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s" s="11">
+        <v>323</v>
+      </c>
+      <c r="I16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="J16" t="s" s="11">
+        <v>401</v>
+      </c>
+      <c r="K16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="L16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="M16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="N16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="O16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="P16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="Q16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="R16" t="s" s="11">
         <v>309</v>
       </c>
-      <c r="I16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="J16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="K16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="L16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="M16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="N16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="O16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="P16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="Q16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="R16" t="s" s="11">
-        <v>294</v>
-      </c>
       <c r="S16" t="s" s="11">
         <v>294</v>
       </c>
       <c r="T16" t="s" s="11">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="U16" t="s" s="11">
         <v>294</v>
@@ -3650,7 +3725,7 @@
         <v>294</v>
       </c>
       <c r="T17" t="s" s="11">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="U17" t="s" s="11">
         <v>294</v>
@@ -3724,13 +3799,13 @@
         <v>36</v>
       </c>
       <c r="F18" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I18" t="s" s="11">
         <v>294</v>
@@ -3760,13 +3835,13 @@
         <v>294</v>
       </c>
       <c r="R18" t="s" s="11">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="S18" t="s" s="11">
         <v>294</v>
       </c>
       <c r="T18" t="s" s="11">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="U18" t="s" s="11">
         <v>294</v>
@@ -3840,19 +3915,19 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I19" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="K19" t="s" s="11">
         <v>294</v>
@@ -3882,7 +3957,7 @@
         <v>294</v>
       </c>
       <c r="T19" t="s" s="11">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="U19" t="s" s="11">
         <v>294</v>
@@ -3968,7 +4043,7 @@
         <v>294</v>
       </c>
       <c r="J20" t="s" s="11">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="K20" t="s" s="11">
         <v>294</v>
@@ -3992,7 +4067,7 @@
         <v>294</v>
       </c>
       <c r="R20" t="s" s="11">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="S20" t="s" s="11">
         <v>294</v>
@@ -4108,7 +4183,7 @@
         <v>294</v>
       </c>
       <c r="R21" t="s" s="11">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="S21" t="s" s="11">
         <v>294</v>
@@ -4200,7 +4275,7 @@
         <v>294</v>
       </c>
       <c r="J22" t="s" s="11">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="K22" t="s" s="11">
         <v>294</v>
@@ -4503,7 +4578,7 @@
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="T26" t="s" s="11">
         <v>294</v>
@@ -4619,7 +4694,7 @@
         <v>294</v>
       </c>
       <c r="S27" t="s" s="11">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="T27" t="s" s="11">
         <v>294</v>
@@ -4735,7 +4810,7 @@
         <v>294</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="T28" t="s" s="11">
         <v>294</v>
@@ -4851,7 +4926,7 @@
         <v>294</v>
       </c>
       <c r="S29" t="s" s="11">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="T29" t="s" s="11">
         <v>294</v>
@@ -6011,7 +6086,7 @@
         <v>294</v>
       </c>
       <c r="S39" t="s" s="11">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="T39" t="s" s="11">
         <v>294</v>
@@ -6127,7 +6202,7 @@
         <v>294</v>
       </c>
       <c r="S40" t="s" s="11">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="T40" t="s" s="11">
         <v>294</v>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284134" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290118" uniqueCount="393">
   <si>
     <t>CXD</t>
   </si>
@@ -2541,76 +2541,76 @@
       <c r="J7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="11">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="11">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="11">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="11">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="11">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="11">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="11">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="11">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="11">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="11">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="11">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="11">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="11">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="11">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="11">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="11">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="11">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="11">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="11">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="11">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="11">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="11">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="11">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="11">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2621,76 +2621,76 @@
       <c r="J8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="11">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="11">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="11">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="11">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="11">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="11">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="11">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="11">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="11">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="11">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="11">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="11">
+      <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" t="s" s="11">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="11">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="11">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="11">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="11">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="11">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="11">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="11">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="11">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="11">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="11">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4325,76 +4325,76 @@
       <c r="J24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="11">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="11">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="11">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="11">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="11">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="11">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="11">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="11">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="11">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="11">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="11">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="11">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="11">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="11">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="11">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="11">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="11">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="11">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="11">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="11">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="11">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="11">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="11">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="11">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4405,76 +4405,76 @@
       <c r="J25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="11">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="11">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="11">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="11">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="11">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="11">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="11">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="11">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="11">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="11">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="11">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="11">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="11">
+      <c r="W25" t="s">
         <v>0</v>
       </c>
-      <c r="X25" t="s" s="11">
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="11">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="11">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="11">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="11">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="11">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="11">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="11">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="11">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="11">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="11">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290118" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306726" uniqueCount="397">
   <si>
     <t>CXD</t>
   </si>
@@ -1240,6 +1240,18 @@
   <si>
     <t>3540.000000</t>
   </si>
+  <si>
+    <t>6181</t>
+  </si>
+  <si>
+    <t>6035</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>4193</t>
+  </si>
 </sst>
 </file>
 
@@ -2541,76 +2553,76 @@
       <c r="J7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" t="s" s="11">
         <v>27</v>
       </c>
     </row>
@@ -2621,76 +2633,76 @@
       <c r="J8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" t="s" s="11">
         <v>102</v>
       </c>
     </row>
@@ -2762,7 +2774,7 @@
         <v>294</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Y9" t="s" s="11">
         <v>294</v>
@@ -2878,7 +2890,7 @@
         <v>294</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Y10" t="s" s="11">
         <v>294</v>
@@ -3574,7 +3586,7 @@
         <v>294</v>
       </c>
       <c r="X16" t="s" s="11">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="Y16" t="s" s="11">
         <v>294</v>
@@ -3690,7 +3702,7 @@
         <v>294</v>
       </c>
       <c r="X17" t="s" s="11">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="Y17" t="s" s="11">
         <v>294</v>
@@ -3922,7 +3934,7 @@
         <v>294</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="Y19" t="s" s="11">
         <v>294</v>
@@ -4325,76 +4337,76 @@
       <c r="J24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" t="s" s="11">
         <v>27</v>
       </c>
     </row>
@@ -4405,76 +4417,76 @@
       <c r="J25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AH25" t="s" s="11">
         <v>102</v>
       </c>
     </row>
@@ -11580,10 +11592,10 @@
         <v>109</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="27" t="n">
-        <v>99999.0</v>
+        <v>154888.0</v>
       </c>
       <c r="I15" s="27" t="n">
         <v>244870.0</v>
@@ -11592,7 +11604,7 @@
         <v>1302506.0</v>
       </c>
       <c r="K15" s="27" t="n">
-        <v>1647375.0</v>
+        <v>1702264.0</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>0.0</v>
@@ -11658,10 +11670,10 @@
         <v>109</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="27" t="n">
-        <v>154888.0</v>
+        <v>99999.0</v>
       </c>
       <c r="I16" s="27" t="n">
         <v>244870.0</v>
@@ -11670,7 +11682,7 @@
         <v>1302506.0</v>
       </c>
       <c r="K16" s="27" t="n">
-        <v>1702264.0</v>
+        <v>1647375.0</v>
       </c>
       <c r="L16" s="27" t="n">
         <v>0.0</v>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306726" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307230" uniqueCount="397">
   <si>
     <t>CXD</t>
   </si>
@@ -11139,7 +11139,7 @@
         <v>7181746.0</v>
       </c>
       <c r="L9" s="37" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M9" s="42" t="s">
         <v>176</v>
@@ -11154,13 +11154,13 @@
         <v>176</v>
       </c>
       <c r="Q9" s="37" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R9" s="37" t="n">
         <v>0.0</v>
       </c>
       <c r="S9" s="37" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T9" s="37" t="n">
         <v>0.0</v>
@@ -11175,7 +11175,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" s="37" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y9" s="37" t="n">
         <v>1.0</v>
@@ -11217,7 +11217,7 @@
         <v>5193458.0</v>
       </c>
       <c r="L10" s="26" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>176</v>
@@ -11232,13 +11232,13 @@
         <v>176</v>
       </c>
       <c r="Q10" s="26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R10" s="26" t="n">
         <v>0.0</v>
       </c>
       <c r="S10" s="26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T10" s="26" t="n">
         <v>0.0</v>
@@ -11253,7 +11253,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" s="26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y10" s="26" t="n">
         <v>0.0</v>
@@ -11919,7 +11919,7 @@
         <v>4702.0</v>
       </c>
       <c r="L19" s="27" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="M19" s="44" t="s">
         <v>176</v>
@@ -11934,13 +11934,13 @@
         <v>176</v>
       </c>
       <c r="Q19" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="R19" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S19" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="T19" s="27" t="n">
         <v>0.0</v>
@@ -11955,7 +11955,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y19" s="27" t="n">
         <v>0.0</v>

--- a/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
+++ b/src/main/resources/com/xdf/xd_f371/xlsx_template/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307230" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307597" uniqueCount="404">
   <si>
     <t>CXD</t>
   </si>
@@ -1252,6 +1252,27 @@
   <si>
     <t>4193</t>
   </si>
+  <si>
+    <t>5640.000000</t>
+  </si>
+  <si>
+    <t>HL NV PO 6</t>
+  </si>
+  <si>
+    <t>900.000000</t>
+  </si>
+  <si>
+    <t>Tác chiến điện tử</t>
+  </si>
+  <si>
+    <t>Đào tạo thợ</t>
+  </si>
+  <si>
+    <t>Đ. viên thời chiến</t>
+  </si>
+  <si>
+    <t>KT_Hàng không</t>
+  </si>
 </sst>
 </file>
 
@@ -10886,7 +10907,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AC64"/>
+  <dimension ref="B2:AC96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
@@ -11118,55 +11139,55 @@
       <c r="C9" s="51"/>
       <c r="D9" s="35"/>
       <c r="E9" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>28</v>
+        <v>174</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>99.0</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="36" t="n">
-        <v>642187.0</v>
-      </c>
-      <c r="I9" s="36" t="n">
-        <v>1029198.0</v>
+      <c r="H9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="J9" s="37" t="n">
-        <v>5510361.0</v>
+        <v>1283088.0</v>
       </c>
       <c r="K9" s="37" t="n">
-        <v>7181746.0</v>
+        <v>1936774.0</v>
       </c>
       <c r="L9" s="37" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>176</v>
+        <v>8784174.0</v>
+      </c>
+      <c r="M9" s="42" t="n">
+        <v>1.2004036E7</v>
       </c>
       <c r="N9" s="37" t="n">
-        <v>0.0</v>
+        <v>570.0</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>176</v>
+        <v>361</v>
+      </c>
+      <c r="P9" s="37" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q9" s="37" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R9" s="37" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>397</v>
       </c>
       <c r="S9" s="37" t="n">
-        <v>12.0</v>
+        <v>208.0</v>
       </c>
       <c r="T9" s="37" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" s="37" t="n">
-        <v>0.0</v>
+        <v>208.0</v>
       </c>
       <c r="V9" s="36" t="n">
         <v>0.0</v>
@@ -11175,19 +11196,23 @@
         <v>0.0</v>
       </c>
       <c r="X9" s="37" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" s="37" t="n">
-        <v>1.0</v>
+        <v>7293.0</v>
       </c>
       <c r="Z9" s="33" t="n">
-        <v>1.0</v>
+        <v>7501.0</v>
       </c>
       <c r="AA9" s="33" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="52"/>
+      <c r="AB9" s="38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC9" s="52" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="23"/>
@@ -11196,55 +11221,55 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="26" t="n">
+        <v>13.0</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="26" t="n">
-        <v>478213.0</v>
-      </c>
-      <c r="I10" s="26" t="n">
-        <v>778417.0</v>
+      <c r="H10" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="J10" s="26" t="n">
-        <v>3936828.0</v>
+        <v>1044681.0</v>
       </c>
       <c r="K10" s="26" t="n">
-        <v>5193458.0</v>
+        <v>1662450.0</v>
       </c>
       <c r="L10" s="26" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>176</v>
+        <v>7210641.0</v>
+      </c>
+      <c r="M10" s="43" t="n">
+        <v>9917772.0</v>
       </c>
       <c r="N10" s="26" t="n">
-        <v>0.0</v>
+        <v>570.0</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>176</v>
+        <v>361</v>
+      </c>
+      <c r="P10" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q10" s="26" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="R10" s="26" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>397</v>
       </c>
       <c r="S10" s="26" t="n">
-        <v>12.0</v>
+        <v>208.0</v>
       </c>
       <c r="T10" s="26" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" s="26" t="n">
-        <v>0.0</v>
+        <v>208.0</v>
       </c>
       <c r="V10" s="26" t="n">
         <v>0.0</v>
@@ -11253,19 +11278,23 @@
         <v>0.0</v>
       </c>
       <c r="X10" s="26" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" s="26" t="n">
-        <v>0.0</v>
+        <v>7293.0</v>
       </c>
       <c r="Z10" s="22" t="n">
+        <v>7501.0</v>
+      </c>
+      <c r="AA10" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB10" s="22" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA10" s="22" t="n">
+      <c r="AC10" s="53" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="53"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -11274,46 +11303,46 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="I11" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="27" t="n">
-        <v>181345.0</v>
-      </c>
-      <c r="I11" s="27" t="n">
-        <v>244870.0</v>
-      </c>
       <c r="J11" s="27" t="n">
-        <v>1302506.0</v>
+        <v>544035.0</v>
       </c>
       <c r="K11" s="27" t="n">
-        <v>1728721.0</v>
+        <v>734610.0</v>
       </c>
       <c r="L11" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>176</v>
+        <v>3907518.0</v>
+      </c>
+      <c r="M11" s="44" t="n">
+        <v>5186163.0</v>
       </c>
       <c r="N11" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O11" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>176</v>
+      <c r="O11" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q11" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="R11" s="27" t="n">
-        <v>0.0</v>
+      <c r="R11" s="27" t="s">
+        <v>390</v>
       </c>
       <c r="S11" s="27" t="n">
         <v>0.0</v>
@@ -11334,16 +11363,20 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="27" t="n">
-        <v>0.0</v>
+        <v>6035.0</v>
       </c>
       <c r="Z11" s="24" t="n">
-        <v>0.0</v>
+        <v>6035.0</v>
       </c>
       <c r="AA11" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB11" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="55"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
@@ -11352,40 +11385,40 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="H12" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="27" t="n">
+      <c r="I12" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="J12" s="27" t="n">
         <v>181345.0</v>
       </c>
-      <c r="I12" s="27" t="n">
+      <c r="K12" s="27" t="n">
         <v>244870.0</v>
       </c>
-      <c r="J12" s="27" t="n">
+      <c r="L12" s="27" t="n">
         <v>1302506.0</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="M12" s="44" t="n">
         <v>1728721.0</v>
       </c>
-      <c r="L12" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="44" t="s">
-        <v>176</v>
-      </c>
       <c r="N12" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O12" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>176</v>
+      <c r="O12" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q12" s="27" t="n">
         <v>0.0</v>
@@ -11420,8 +11453,12 @@
       <c r="AA12" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="55"/>
+      <c r="AB12" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
@@ -11430,46 +11467,46 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="27" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="I13" s="27" t="n">
-        <v>600.0</v>
+      <c r="H13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="J13" s="27" t="n">
-        <v>0.0</v>
+        <v>181345.0</v>
       </c>
       <c r="K13" s="27" t="n">
-        <v>1500.0</v>
+        <v>244870.0</v>
       </c>
       <c r="L13" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M13" s="44" t="s">
-        <v>176</v>
+        <v>1302506.0</v>
+      </c>
+      <c r="M13" s="44" t="n">
+        <v>1728721.0</v>
       </c>
       <c r="N13" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>176</v>
+      <c r="O13" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q13" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="R13" s="27" t="n">
-        <v>0.0</v>
+      <c r="R13" s="27" t="s">
+        <v>369</v>
       </c>
       <c r="S13" s="27" t="n">
         <v>0.0</v>
@@ -11490,16 +11527,20 @@
         <v>0.0</v>
       </c>
       <c r="Y13" s="27" t="n">
-        <v>0.0</v>
+        <v>4862.0</v>
       </c>
       <c r="Z13" s="24" t="n">
-        <v>0.0</v>
+        <v>4862.0</v>
       </c>
       <c r="AA13" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB13" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
@@ -11508,46 +11549,46 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="27" t="n">
-        <v>254887.0</v>
-      </c>
-      <c r="I14" s="27" t="n">
-        <v>489740.0</v>
+      <c r="H14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="J14" s="27" t="n">
-        <v>2605012.0</v>
+        <v>181345.0</v>
       </c>
       <c r="K14" s="27" t="n">
-        <v>3349639.0</v>
+        <v>244870.0</v>
       </c>
       <c r="L14" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>176</v>
+        <v>1302506.0</v>
+      </c>
+      <c r="M14" s="44" t="n">
+        <v>1728721.0</v>
       </c>
       <c r="N14" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O14" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>176</v>
+      <c r="O14" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q14" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14" s="27" t="n">
-        <v>0.0</v>
+      <c r="R14" s="27" t="s">
+        <v>389</v>
       </c>
       <c r="S14" s="27" t="n">
         <v>0.0</v>
@@ -11568,16 +11609,20 @@
         <v>0.0</v>
       </c>
       <c r="Y14" s="27" t="n">
-        <v>0.0</v>
+        <v>1173.0</v>
       </c>
       <c r="Z14" s="24" t="n">
-        <v>0.0</v>
+        <v>1173.0</v>
       </c>
       <c r="AA14" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB14" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
@@ -11586,40 +11631,40 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="27" t="n">
-        <v>154888.0</v>
-      </c>
-      <c r="I15" s="27" t="n">
-        <v>244870.0</v>
+      <c r="H15" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="J15" s="27" t="n">
-        <v>1302506.0</v>
+        <v>450.0</v>
       </c>
       <c r="K15" s="27" t="n">
-        <v>1702264.0</v>
+        <v>300.0</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M15" s="44" t="s">
-        <v>176</v>
+      <c r="M15" s="44" t="n">
+        <v>750.0</v>
       </c>
       <c r="N15" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O15" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>176</v>
+      <c r="O15" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q15" s="27" t="n">
         <v>0.0</v>
@@ -11654,8 +11699,12 @@
       <c r="AA15" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="55"/>
+      <c r="AB15" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -11664,40 +11713,40 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="27" t="n">
-        <v>99999.0</v>
-      </c>
-      <c r="I16" s="27" t="n">
-        <v>244870.0</v>
+      <c r="H16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="J16" s="27" t="n">
-        <v>1302506.0</v>
+        <v>450.0</v>
       </c>
       <c r="K16" s="27" t="n">
-        <v>1647375.0</v>
+        <v>300.0</v>
       </c>
       <c r="L16" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M16" s="44" t="s">
-        <v>176</v>
+      <c r="M16" s="44" t="n">
+        <v>750.0</v>
       </c>
       <c r="N16" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O16" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>176</v>
+      <c r="O16" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q16" s="27" t="n">
         <v>0.0</v>
@@ -11732,8 +11781,12 @@
       <c r="AA16" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="55"/>
+      <c r="AB16" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
@@ -11742,40 +11795,40 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="27" t="n">
-        <v>5340.0</v>
-      </c>
-      <c r="I17" s="27" t="n">
-        <v>2440.0</v>
+      <c r="H17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="J17" s="27" t="n">
-        <v>29310.0</v>
+        <v>267232.0</v>
       </c>
       <c r="K17" s="27" t="n">
-        <v>37090.0</v>
+        <v>613196.0</v>
       </c>
       <c r="L17" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M17" s="44" t="s">
-        <v>176</v>
+        <v>2728468.0</v>
+      </c>
+      <c r="M17" s="44" t="n">
+        <v>3608896.0</v>
       </c>
       <c r="N17" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O17" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>176</v>
+      <c r="O17" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q17" s="27" t="n">
         <v>0.0</v>
@@ -11808,10 +11861,14 @@
         <v>0.0</v>
       </c>
       <c r="AA17" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB17" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
@@ -11820,40 +11877,40 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="27" t="n">
-        <v>5340.0</v>
-      </c>
-      <c r="I18" s="27" t="n">
-        <v>2440.0</v>
+      <c r="H18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>398</v>
       </c>
       <c r="J18" s="27" t="n">
-        <v>29310.0</v>
+        <v>12345.0</v>
       </c>
       <c r="K18" s="27" t="n">
-        <v>37090.0</v>
+        <v>123456.0</v>
       </c>
       <c r="L18" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M18" s="44" t="s">
-        <v>176</v>
+        <v>123456.0</v>
+      </c>
+      <c r="M18" s="44" t="n">
+        <v>259257.0</v>
       </c>
       <c r="N18" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O18" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>176</v>
+      <c r="O18" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q18" s="27" t="n">
         <v>0.0</v>
@@ -11888,8 +11945,12 @@
       <c r="AA18" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="55"/>
+      <c r="AB18" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
@@ -11898,49 +11959,49 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="27" t="n">
-        <v>1740.0</v>
-      </c>
-      <c r="I19" s="27" t="n">
-        <v>2962.0</v>
+      <c r="H19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="J19" s="27" t="n">
-        <v>0.0</v>
+        <v>99999.0</v>
       </c>
       <c r="K19" s="27" t="n">
-        <v>4702.0</v>
+        <v>244870.0</v>
       </c>
       <c r="L19" s="27" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="M19" s="44" t="s">
-        <v>176</v>
+        <v>1302506.0</v>
+      </c>
+      <c r="M19" s="44" t="n">
+        <v>1647375.0</v>
       </c>
       <c r="N19" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O19" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>176</v>
+      <c r="O19" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q19" s="27" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S19" s="27" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="T19" s="27" t="n">
         <v>0.0</v>
@@ -11955,7 +12016,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" s="27" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y19" s="27" t="n">
         <v>0.0</v>
@@ -11964,10 +12025,14 @@
         <v>0.0</v>
       </c>
       <c r="AA19" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB19" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -11976,40 +12041,40 @@
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="27" t="n">
-        <v>1506.0</v>
-      </c>
-      <c r="I20" s="27" t="n">
-        <v>1504.0</v>
+      <c r="H20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="J20" s="27" t="n">
-        <v>0.0</v>
+        <v>154888.0</v>
       </c>
       <c r="K20" s="27" t="n">
-        <v>3010.0</v>
+        <v>244870.0</v>
       </c>
       <c r="L20" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>176</v>
+        <v>1302506.0</v>
+      </c>
+      <c r="M20" s="44" t="n">
+        <v>1702264.0</v>
       </c>
       <c r="N20" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O20" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>176</v>
+      <c r="O20" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q20" s="27" t="n">
         <v>0.0</v>
@@ -12042,10 +12107,14 @@
         <v>0.0</v>
       </c>
       <c r="AA20" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB20" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -12054,40 +12123,40 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="27" t="n">
-        <v>5236.0</v>
-      </c>
-      <c r="I21" s="27" t="n">
-        <v>4162.0</v>
+      <c r="H21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="J21" s="27" t="n">
-        <v>0.0</v>
+        <v>5340.0</v>
       </c>
       <c r="K21" s="27" t="n">
-        <v>9398.0</v>
+        <v>2440.0</v>
       </c>
       <c r="L21" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="44" t="s">
-        <v>176</v>
+        <v>574655.0</v>
+      </c>
+      <c r="M21" s="44" t="n">
+        <v>582435.0</v>
       </c>
       <c r="N21" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O21" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>176</v>
+      <c r="O21" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q21" s="27" t="n">
         <v>0.0</v>
@@ -12120,10 +12189,14 @@
         <v>0.0</v>
       </c>
       <c r="AA21" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
@@ -12132,40 +12205,40 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="27" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="I22" s="27" t="n">
-        <v>246.0</v>
+      <c r="H22" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="J22" s="27" t="n">
-        <v>0.0</v>
+        <v>5340.0</v>
       </c>
       <c r="K22" s="27" t="n">
-        <v>1246.0</v>
+        <v>2440.0</v>
       </c>
       <c r="L22" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>176</v>
+        <v>29310.0</v>
+      </c>
+      <c r="M22" s="44" t="n">
+        <v>37090.0</v>
       </c>
       <c r="N22" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O22" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>176</v>
+      <c r="O22" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q22" s="27" t="n">
         <v>0.0</v>
@@ -12198,10 +12271,14 @@
         <v>0.0</v>
       </c>
       <c r="AA22" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB22" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC22" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
@@ -12210,40 +12287,40 @@
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G23" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="27" t="n">
-        <v>20000.0</v>
-      </c>
-      <c r="I23" s="27" t="n">
-        <v>21000.0</v>
+      <c r="H23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="J23" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="K23" s="27" t="n">
-        <v>41000.0</v>
+        <v>0.0</v>
       </c>
       <c r="L23" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M23" s="44" t="s">
-        <v>176</v>
+        <v>545345.0</v>
+      </c>
+      <c r="M23" s="44" t="n">
+        <v>545345.0</v>
       </c>
       <c r="N23" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O23" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>176</v>
+      <c r="O23" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q23" s="27" t="n">
         <v>0.0</v>
@@ -12276,10 +12353,14 @@
         <v>0.0</v>
       </c>
       <c r="AA23" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB23" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC23" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
@@ -12288,40 +12369,40 @@
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="27" t="n">
-        <v>28000.0</v>
-      </c>
-      <c r="I24" s="27" t="n">
-        <v>39660.0</v>
+      <c r="H24" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0</v>
+        <v>12323.0</v>
       </c>
       <c r="K24" s="27" t="n">
-        <v>67660.0</v>
+        <v>12323.0</v>
       </c>
       <c r="L24" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M24" s="44" t="s">
-        <v>176</v>
+      <c r="M24" s="44" t="n">
+        <v>24646.0</v>
       </c>
       <c r="N24" s="27" t="n">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>176</v>
+        <v>361</v>
+      </c>
+      <c r="P24" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q24" s="27" t="n">
         <v>0.0</v>
@@ -12330,13 +12411,13 @@
         <v>0.0</v>
       </c>
       <c r="S24" s="27" t="n">
-        <v>0.0</v>
+        <v>176.0</v>
       </c>
       <c r="T24" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" s="27" t="n">
-        <v>0.0</v>
+        <v>176.0</v>
       </c>
       <c r="V24" s="27" t="n">
         <v>0.0</v>
@@ -12351,13 +12432,17 @@
         <v>0.0</v>
       </c>
       <c r="Z24" s="24" t="n">
-        <v>0.0</v>
+        <v>176.0</v>
       </c>
       <c r="AA24" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB24" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC24" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
@@ -12366,40 +12451,40 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="27" t="n">
-        <v>14900.0</v>
-      </c>
-      <c r="I25" s="27" t="n">
-        <v>12600.0</v>
+      <c r="H25" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0</v>
+        <v>12323.0</v>
       </c>
       <c r="K25" s="27" t="n">
-        <v>27500.0</v>
+        <v>12323.0</v>
       </c>
       <c r="L25" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M25" s="44" t="s">
-        <v>176</v>
+      <c r="M25" s="44" t="n">
+        <v>24646.0</v>
       </c>
       <c r="N25" s="27" t="n">
-        <v>0.0</v>
+        <v>350.0</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>176</v>
+        <v>361</v>
+      </c>
+      <c r="P25" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q25" s="27" t="n">
         <v>0.0</v>
@@ -12408,13 +12493,13 @@
         <v>0.0</v>
       </c>
       <c r="S25" s="27" t="n">
-        <v>0.0</v>
+        <v>176.0</v>
       </c>
       <c r="T25" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="U25" s="27" t="n">
-        <v>0.0</v>
+        <v>176.0</v>
       </c>
       <c r="V25" s="27" t="n">
         <v>0.0</v>
@@ -12429,13 +12514,17 @@
         <v>0.0</v>
       </c>
       <c r="Z25" s="24" t="n">
-        <v>0.0</v>
+        <v>176.0</v>
       </c>
       <c r="AA25" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB25" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC25" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -12444,40 +12533,40 @@
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>122</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="27" t="n">
+        <v>4.0</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="27" t="n">
-        <v>52123.0</v>
-      </c>
-      <c r="I26" s="27" t="n">
-        <v>102388.0</v>
+        <v>104</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0</v>
+        <v>555.0</v>
       </c>
       <c r="K26" s="27" t="n">
-        <v>154511.0</v>
+        <v>555.0</v>
       </c>
       <c r="L26" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M26" s="44" t="s">
-        <v>176</v>
+      <c r="M26" s="44" t="n">
+        <v>1110.0</v>
       </c>
       <c r="N26" s="27" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>176</v>
+        <v>204</v>
+      </c>
+      <c r="P26" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q26" s="27" t="n">
         <v>0.0</v>
@@ -12486,13 +12575,13 @@
         <v>0.0</v>
       </c>
       <c r="S26" s="27" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T26" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="U26" s="27" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="V26" s="27" t="n">
         <v>0.0</v>
@@ -12507,13 +12596,17 @@
         <v>0.0</v>
       </c>
       <c r="Z26" s="24" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA26" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB26" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC26" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA26" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
@@ -12522,40 +12615,40 @@
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>123</v>
+        <v>23</v>
+      </c>
+      <c r="F27" s="27" t="n">
+        <v>4.0</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="27" t="n">
-        <v>3333.0</v>
-      </c>
-      <c r="I27" s="27" t="n">
-        <v>6000.0</v>
+        <v>104</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0</v>
+        <v>555.0</v>
       </c>
       <c r="K27" s="27" t="n">
-        <v>9333.0</v>
+        <v>555.0</v>
       </c>
       <c r="L27" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M27" s="44" t="s">
-        <v>176</v>
+      <c r="M27" s="44" t="n">
+        <v>1110.0</v>
       </c>
       <c r="N27" s="27" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>176</v>
+        <v>204</v>
+      </c>
+      <c r="P27" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q27" s="27" t="n">
         <v>0.0</v>
@@ -12564,13 +12657,13 @@
         <v>0.0</v>
       </c>
       <c r="S27" s="27" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T27" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="U27" s="27" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="V27" s="27" t="n">
         <v>0.0</v>
@@ -12585,13 +12678,17 @@
         <v>0.0</v>
       </c>
       <c r="Z27" s="24" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA27" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB27" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC27" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -12600,46 +12697,46 @@
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>123</v>
+        <v>23</v>
+      </c>
+      <c r="F28" s="27" t="n">
+        <v>4.0</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="H28" s="27" t="n">
-        <v>3333.0</v>
-      </c>
-      <c r="I28" s="27" t="n">
-        <v>6000.0</v>
+        <v>104</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0</v>
+        <v>753.0</v>
       </c>
       <c r="K28" s="27" t="n">
-        <v>9333.0</v>
+        <v>752.0</v>
       </c>
       <c r="L28" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M28" s="44" t="s">
-        <v>176</v>
+      <c r="M28" s="44" t="n">
+        <v>1505.0</v>
       </c>
       <c r="N28" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O28" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>176</v>
+      <c r="O28" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q28" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="R28" s="27" t="n">
-        <v>0.0</v>
+      <c r="R28" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="S28" s="27" t="n">
         <v>0.0</v>
@@ -12660,16 +12757,20 @@
         <v>0.0</v>
       </c>
       <c r="Y28" s="27" t="n">
-        <v>0.0</v>
+        <v>1258.0</v>
       </c>
       <c r="Z28" s="24" t="n">
-        <v>0.0</v>
+        <v>1258.0</v>
       </c>
       <c r="AA28" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="55"/>
+      <c r="AB28" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC28" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
@@ -12678,46 +12779,46 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="F29" s="27" t="n">
+        <v>4.0</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I29" s="27" t="n">
-        <v>0.0</v>
+        <v>104</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0</v>
+        <v>753.0</v>
       </c>
       <c r="K29" s="27" t="n">
-        <v>0.0</v>
+        <v>752.0</v>
       </c>
       <c r="L29" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M29" s="44" t="s">
-        <v>176</v>
+      <c r="M29" s="44" t="n">
+        <v>1505.0</v>
       </c>
       <c r="N29" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O29" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>176</v>
+      <c r="O29" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P29" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q29" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29" s="27" t="n">
-        <v>0.0</v>
+      <c r="R29" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="S29" s="27" t="n">
         <v>0.0</v>
@@ -12738,16 +12839,20 @@
         <v>0.0</v>
       </c>
       <c r="Y29" s="27" t="n">
-        <v>0.0</v>
+        <v>1258.0</v>
       </c>
       <c r="Z29" s="24" t="n">
-        <v>0.0</v>
+        <v>1258.0</v>
       </c>
       <c r="AA29" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB29" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC29" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
@@ -12756,40 +12861,40 @@
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>127</v>
+        <v>23</v>
+      </c>
+      <c r="F30" s="27" t="n">
+        <v>6.0</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="27" t="n">
-        <v>73840.0</v>
-      </c>
-      <c r="I30" s="27" t="n">
-        <v>177776.0</v>
+        <v>104</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0</v>
+        <v>154888.0</v>
       </c>
       <c r="K30" s="27" t="n">
-        <v>251616.0</v>
+        <v>244870.0</v>
       </c>
       <c r="L30" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M30" s="44" t="s">
-        <v>176</v>
+      <c r="M30" s="44" t="n">
+        <v>399758.0</v>
       </c>
       <c r="N30" s="27" t="n">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>176</v>
+        <v>204</v>
+      </c>
+      <c r="P30" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q30" s="27" t="n">
         <v>0.0</v>
@@ -12798,13 +12903,13 @@
         <v>0.0</v>
       </c>
       <c r="S30" s="27" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="T30" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="U30" s="27" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V30" s="27" t="n">
         <v>0.0</v>
@@ -12819,13 +12924,17 @@
         <v>0.0</v>
       </c>
       <c r="Z30" s="24" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA30" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB30" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC30" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
@@ -12834,40 +12943,40 @@
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="F31" s="27" t="n">
+        <v>6.0</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="27" t="n">
-        <v>23740.0</v>
-      </c>
-      <c r="I31" s="27" t="n">
-        <v>15000.0</v>
+        <v>104</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0</v>
+        <v>154888.0</v>
       </c>
       <c r="K31" s="27" t="n">
-        <v>38740.0</v>
+        <v>244870.0</v>
       </c>
       <c r="L31" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M31" s="44" t="s">
-        <v>176</v>
+      <c r="M31" s="44" t="n">
+        <v>399758.0</v>
       </c>
       <c r="N31" s="27" t="n">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>176</v>
+        <v>204</v>
+      </c>
+      <c r="P31" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q31" s="27" t="n">
         <v>0.0</v>
@@ -12876,13 +12985,13 @@
         <v>0.0</v>
       </c>
       <c r="S31" s="27" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="T31" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="U31" s="27" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V31" s="27" t="n">
         <v>0.0</v>
@@ -12897,13 +13006,17 @@
         <v>0.0</v>
       </c>
       <c r="Z31" s="24" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA31" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB31" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC31" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
@@ -12912,40 +13025,40 @@
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="F32" s="27" t="n">
+        <v>7.0</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="27" t="n">
-        <v>34970.0</v>
-      </c>
-      <c r="I32" s="27" t="n">
-        <v>64091.0</v>
+        <v>104</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0</v>
+        <v>2618.0</v>
       </c>
       <c r="K32" s="27" t="n">
-        <v>99061.0</v>
+        <v>2081.0</v>
       </c>
       <c r="L32" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M32" s="44" t="s">
-        <v>176</v>
+      <c r="M32" s="44" t="n">
+        <v>4699.0</v>
       </c>
       <c r="N32" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O32" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>176</v>
+      <c r="O32" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P32" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q32" s="27" t="n">
         <v>0.0</v>
@@ -12975,13 +13088,17 @@
         <v>0.0</v>
       </c>
       <c r="Z32" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA32" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB32" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC32" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA32" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="55"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
@@ -12990,40 +13107,40 @@
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="F33" s="27" t="n">
+        <v>7.0</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="27" t="n">
-        <v>19700.0</v>
-      </c>
-      <c r="I33" s="27" t="n">
-        <v>38300.0</v>
+        <v>104</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0</v>
+        <v>2618.0</v>
       </c>
       <c r="K33" s="27" t="n">
-        <v>58000.0</v>
+        <v>2081.0</v>
       </c>
       <c r="L33" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M33" s="44" t="s">
-        <v>176</v>
+      <c r="M33" s="44" t="n">
+        <v>4699.0</v>
       </c>
       <c r="N33" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O33" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>176</v>
+      <c r="O33" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P33" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q33" s="27" t="n">
         <v>0.0</v>
@@ -13056,10 +13173,14 @@
         <v>0.0</v>
       </c>
       <c r="AA33" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB33" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC33" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="23"/>
@@ -13068,40 +13189,40 @@
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>131</v>
+        <v>23</v>
+      </c>
+      <c r="F34" s="26" t="n">
+        <v>7.0</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="26" t="n">
-        <v>2200.0</v>
-      </c>
-      <c r="I34" s="26" t="n">
-        <v>2222.0</v>
+        <v>104</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="J34" s="26" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="K34" s="26" t="n">
-        <v>4422.0</v>
+        <v>123.0</v>
       </c>
       <c r="L34" s="26" t="n">
         <v>0.0</v>
       </c>
-      <c r="M34" s="43" t="s">
-        <v>176</v>
+      <c r="M34" s="43" t="n">
+        <v>623.0</v>
       </c>
       <c r="N34" s="26" t="n">
         <v>0.0</v>
       </c>
-      <c r="O34" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>176</v>
+      <c r="O34" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P34" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q34" s="26" t="n">
         <v>0.0</v>
@@ -13134,10 +13255,14 @@
         <v>0.0</v>
       </c>
       <c r="AA34" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB34" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC34" s="53" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB34" s="22"/>
-      <c r="AC34" s="53"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
@@ -13146,40 +13271,40 @@
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="F35" s="27" t="n">
+        <v>7.0</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="27" t="n">
-        <v>2740.0</v>
-      </c>
-      <c r="I35" s="27" t="n">
-        <v>3860.0</v>
+        <v>104</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
       <c r="K35" s="27" t="n">
-        <v>6600.0</v>
+        <v>123.0</v>
       </c>
       <c r="L35" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M35" s="44" t="s">
-        <v>176</v>
+      <c r="M35" s="44" t="n">
+        <v>623.0</v>
       </c>
       <c r="N35" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O35" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>176</v>
+      <c r="O35" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P35" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q35" s="27" t="n">
         <v>0.0</v>
@@ -13212,10 +13337,14 @@
         <v>0.0</v>
       </c>
       <c r="AA35" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB35" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC35" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
@@ -13224,40 +13353,40 @@
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>133</v>
+        <v>23</v>
+      </c>
+      <c r="F36" s="27" t="n">
+        <v>9.0</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="27" t="n">
-        <v>10400.0</v>
-      </c>
-      <c r="I36" s="27" t="n">
-        <v>43200.0</v>
+        <v>104</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K36" s="27" t="n">
-        <v>53600.0</v>
+        <v>10500.0</v>
       </c>
       <c r="L36" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M36" s="44" t="s">
-        <v>176</v>
+      <c r="M36" s="44" t="n">
+        <v>20500.0</v>
       </c>
       <c r="N36" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O36" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>176</v>
+      <c r="O36" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P36" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q36" s="27" t="n">
         <v>0.0</v>
@@ -13290,10 +13419,14 @@
         <v>0.0</v>
       </c>
       <c r="AA36" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB36" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC36" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="55"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
@@ -13302,40 +13435,40 @@
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>134</v>
+        <v>23</v>
+      </c>
+      <c r="F37" s="27" t="n">
+        <v>9.0</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="27" t="n">
-        <v>28000.0</v>
-      </c>
-      <c r="I37" s="27" t="n">
-        <v>31200.0</v>
+        <v>104</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K37" s="27" t="n">
-        <v>59200.0</v>
+        <v>10500.0</v>
       </c>
       <c r="L37" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M37" s="44" t="s">
-        <v>176</v>
+      <c r="M37" s="44" t="n">
+        <v>20500.0</v>
       </c>
       <c r="N37" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O37" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>176</v>
+      <c r="O37" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P37" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q37" s="27" t="n">
         <v>0.0</v>
@@ -13368,10 +13501,14 @@
         <v>0.0</v>
       </c>
       <c r="AA37" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB37" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC37" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
@@ -13380,40 +13517,40 @@
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>135</v>
+        <v>23</v>
+      </c>
+      <c r="F38" s="27" t="n">
+        <v>10.0</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="H38" s="27" t="n">
-        <v>6900.0</v>
-      </c>
-      <c r="I38" s="27" t="n">
-        <v>9400.0</v>
+        <v>104</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K38" s="27" t="n">
-        <v>16300.0</v>
+        <v>19830.0</v>
       </c>
       <c r="L38" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M38" s="44" t="s">
-        <v>176</v>
+      <c r="M38" s="44" t="n">
+        <v>33830.0</v>
       </c>
       <c r="N38" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O38" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>176</v>
+      <c r="O38" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P38" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q38" s="27" t="n">
         <v>0.0</v>
@@ -13446,10 +13583,14 @@
         <v>0.0</v>
       </c>
       <c r="AA38" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB38" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="55"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
@@ -13458,40 +13599,40 @@
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>136</v>
+        <v>23</v>
+      </c>
+      <c r="F39" s="27" t="n">
+        <v>10.0</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="27" t="n">
-        <v>76881.0</v>
-      </c>
-      <c r="I39" s="27" t="n">
-        <v>84302.0</v>
+        <v>104</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>1573533.0</v>
+        <v>14000.0</v>
       </c>
       <c r="K39" s="27" t="n">
-        <v>1734716.0</v>
+        <v>19830.0</v>
       </c>
       <c r="L39" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M39" s="44" t="s">
-        <v>176</v>
+      <c r="M39" s="44" t="n">
+        <v>33830.0</v>
       </c>
       <c r="N39" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O39" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>176</v>
+      <c r="O39" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P39" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q39" s="27" t="n">
         <v>0.0</v>
@@ -13521,13 +13662,17 @@
         <v>0.0</v>
       </c>
       <c r="Z39" s="24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA39" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB39" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC39" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
@@ -13536,40 +13681,40 @@
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>137</v>
+        <v>23</v>
+      </c>
+      <c r="F40" s="27" t="n">
+        <v>11.0</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="27" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="I40" s="27" t="n">
-        <v>2000.0</v>
+        <v>104</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0</v>
+        <v>2315.0</v>
       </c>
       <c r="K40" s="27" t="n">
-        <v>6000.0</v>
+        <v>12348.0</v>
       </c>
       <c r="L40" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M40" s="44" t="s">
-        <v>176</v>
+      <c r="M40" s="44" t="n">
+        <v>14663.0</v>
       </c>
       <c r="N40" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O40" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>176</v>
+      <c r="O40" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P40" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q40" s="27" t="n">
         <v>0.0</v>
@@ -13602,10 +13747,14 @@
         <v>0.0</v>
       </c>
       <c r="AA40" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB40" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="55"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
@@ -13614,40 +13763,40 @@
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>138</v>
+        <v>23</v>
+      </c>
+      <c r="F41" s="27" t="n">
+        <v>11.0</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H41" s="27" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="I41" s="27" t="n">
-        <v>800.0</v>
+        <v>104</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>401</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0</v>
+        <v>2315.0</v>
       </c>
       <c r="K41" s="27" t="n">
-        <v>1200.0</v>
+        <v>12348.0</v>
       </c>
       <c r="L41" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M41" s="44" t="s">
-        <v>176</v>
+      <c r="M41" s="44" t="n">
+        <v>14663.0</v>
       </c>
       <c r="N41" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O41" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>176</v>
+      <c r="O41" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P41" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q41" s="27" t="n">
         <v>0.0</v>
@@ -13680,10 +13829,14 @@
         <v>0.0</v>
       </c>
       <c r="AA41" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB41" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC41" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B42" s="23"/>
@@ -13692,40 +13845,40 @@
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>139</v>
+        <v>23</v>
+      </c>
+      <c r="F42" s="26" t="n">
+        <v>12.0</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="26" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="I42" s="26" t="n">
-        <v>240.0</v>
+        <v>104</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="J42" s="26" t="n">
-        <v>0.0</v>
+        <v>22222.0</v>
       </c>
       <c r="K42" s="26" t="n">
-        <v>640.0</v>
+        <v>2222.0</v>
       </c>
       <c r="L42" s="26" t="n">
         <v>0.0</v>
       </c>
-      <c r="M42" s="43" t="s">
-        <v>176</v>
+      <c r="M42" s="43" t="n">
+        <v>24444.0</v>
       </c>
       <c r="N42" s="26" t="n">
         <v>0.0</v>
       </c>
-      <c r="O42" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="P42" s="26" t="s">
-        <v>176</v>
+      <c r="O42" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P42" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q42" s="26" t="n">
         <v>0.0</v>
@@ -13758,10 +13911,14 @@
         <v>0.0</v>
       </c>
       <c r="AA42" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB42" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC42" s="53" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB42" s="22"/>
-      <c r="AC42" s="53"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
@@ -13770,40 +13927,40 @@
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="F43" s="27" t="n">
+        <v>12.0</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" s="27" t="n">
-        <v>2600.0</v>
-      </c>
-      <c r="I43" s="27" t="n">
-        <v>2000.0</v>
+        <v>104</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I43" s="27" t="s">
+        <v>402</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0</v>
+        <v>22222.0</v>
       </c>
       <c r="K43" s="27" t="n">
-        <v>4600.0</v>
+        <v>2222.0</v>
       </c>
       <c r="L43" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M43" s="44" t="s">
-        <v>176</v>
+      <c r="M43" s="44" t="n">
+        <v>24444.0</v>
       </c>
       <c r="N43" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O43" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>176</v>
+      <c r="O43" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P43" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q43" s="27" t="n">
         <v>0.0</v>
@@ -13836,10 +13993,14 @@
         <v>0.0</v>
       </c>
       <c r="AA43" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB43" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC43" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
@@ -13848,40 +14009,40 @@
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="F44" s="27" t="n">
+        <v>13.0</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H44" s="27" t="n">
-        <v>45044.0</v>
-      </c>
-      <c r="I44" s="27" t="n">
-        <v>44200.0</v>
+        <v>104</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>780000.0</v>
+        <v>7450.0</v>
       </c>
       <c r="K44" s="27" t="n">
-        <v>869244.0</v>
+        <v>6300.0</v>
       </c>
       <c r="L44" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M44" s="44" t="s">
-        <v>176</v>
+      <c r="M44" s="44" t="n">
+        <v>13750.0</v>
       </c>
       <c r="N44" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O44" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>176</v>
+      <c r="O44" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P44" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q44" s="27" t="n">
         <v>0.0</v>
@@ -13914,10 +14075,14 @@
         <v>0.0</v>
       </c>
       <c r="AA44" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB44" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC44" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="55"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
@@ -13926,40 +14091,40 @@
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>141</v>
+        <v>23</v>
+      </c>
+      <c r="F45" s="27" t="n">
+        <v>13.0</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="27" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="I45" s="27" t="n">
-        <v>200.0</v>
+        <v>104</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0</v>
+        <v>7450.0</v>
       </c>
       <c r="K45" s="27" t="n">
-        <v>800.0</v>
+        <v>6300.0</v>
       </c>
       <c r="L45" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M45" s="44" t="s">
-        <v>176</v>
+      <c r="M45" s="44" t="n">
+        <v>13750.0</v>
       </c>
       <c r="N45" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O45" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>176</v>
+      <c r="O45" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q45" s="27" t="n">
         <v>0.0</v>
@@ -13994,8 +14159,12 @@
       <c r="AA45" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="55"/>
+      <c r="AB45" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC45" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
@@ -14004,40 +14173,40 @@
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>143</v>
+        <v>171</v>
+      </c>
+      <c r="F46" s="27" t="n">
+        <v>5.0</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="27" t="n">
-        <v>15950.0</v>
-      </c>
-      <c r="I46" s="27" t="n">
-        <v>23600.0</v>
+        <v>122</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0</v>
+        <v>117467.0</v>
       </c>
       <c r="K46" s="27" t="n">
-        <v>39550.0</v>
+        <v>116942.0</v>
       </c>
       <c r="L46" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M46" s="44" t="s">
-        <v>176</v>
+      <c r="M46" s="44" t="n">
+        <v>234409.0</v>
       </c>
       <c r="N46" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O46" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>176</v>
+      <c r="O46" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P46" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q46" s="27" t="n">
         <v>0.0</v>
@@ -14070,10 +14239,14 @@
         <v>0.0</v>
       </c>
       <c r="AA46" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB46" s="24" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="55"/>
+      <c r="AC46" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
@@ -14082,40 +14255,40 @@
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>144</v>
+        <v>171</v>
+      </c>
+      <c r="F47" s="27" t="n">
+        <v>1.0</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="27" t="n">
-        <v>81300.0</v>
-      </c>
-      <c r="I47" s="27" t="n">
-        <v>92920.0</v>
+        <v>122</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>2360400.0</v>
+        <v>8678.0</v>
       </c>
       <c r="K47" s="27" t="n">
-        <v>2534620.0</v>
+        <v>10555.0</v>
       </c>
       <c r="L47" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M47" s="44" t="s">
-        <v>176</v>
+      <c r="M47" s="44" t="n">
+        <v>19233.0</v>
       </c>
       <c r="N47" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O47" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>176</v>
+      <c r="O47" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P47" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q47" s="27" t="n">
         <v>0.0</v>
@@ -14148,10 +14321,14 @@
         <v>0.0</v>
       </c>
       <c r="AA47" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB47" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC47" s="55" t="n">
         <v>1.0</v>
       </c>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="55"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
@@ -14160,40 +14337,40 @@
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>146</v>
+        <v>171</v>
+      </c>
+      <c r="F48" s="27" t="n">
+        <v>1.0</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" s="27" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="I48" s="27" t="n">
-        <v>2000.0</v>
+        <v>122</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>365</v>
       </c>
       <c r="J48" s="27" t="n">
-        <v>0.0</v>
+        <v>3333.0</v>
       </c>
       <c r="K48" s="27" t="n">
-        <v>3000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="L48" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M48" s="44" t="s">
-        <v>176</v>
+      <c r="M48" s="44" t="n">
+        <v>9333.0</v>
       </c>
       <c r="N48" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O48" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>176</v>
+      <c r="O48" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P48" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q48" s="27" t="n">
         <v>0.0</v>
@@ -14226,10 +14403,14 @@
         <v>0.0</v>
       </c>
       <c r="AA48" s="24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="55"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB48" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC48" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="23"/>
@@ -14238,40 +14419,40 @@
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>366</v>
+        <v>171</v>
+      </c>
+      <c r="F49" s="26" t="n">
+        <v>1.0</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="H49" s="26" t="n">
-        <v>1234.0</v>
-      </c>
-      <c r="I49" s="26" t="n">
-        <v>322.0</v>
+        <v>122</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="J49" s="26" t="n">
-        <v>3333.0</v>
+        <v>5345.0</v>
       </c>
       <c r="K49" s="26" t="n">
-        <v>4889.0</v>
+        <v>4555.0</v>
       </c>
       <c r="L49" s="26" t="n">
         <v>0.0</v>
       </c>
-      <c r="M49" s="43" t="s">
-        <v>176</v>
+      <c r="M49" s="43" t="n">
+        <v>9900.0</v>
       </c>
       <c r="N49" s="26" t="n">
         <v>0.0</v>
       </c>
-      <c r="O49" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="P49" s="26" t="s">
-        <v>176</v>
+      <c r="O49" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P49" s="26" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q49" s="26" t="n">
         <v>0.0</v>
@@ -14304,10 +14485,14 @@
         <v>0.0</v>
       </c>
       <c r="AA49" s="22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="53"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB49" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC49" s="53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="23"/>
@@ -14316,40 +14501,40 @@
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>366</v>
+        <v>171</v>
+      </c>
+      <c r="F50" s="27" t="n">
+        <v>2.0</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="H50" s="27" t="n">
-        <v>1234.0</v>
-      </c>
-      <c r="I50" s="27" t="n">
-        <v>322.0</v>
+        <v>122</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="J50" s="27" t="n">
-        <v>3333.0</v>
+        <v>5455.0</v>
       </c>
       <c r="K50" s="27" t="n">
-        <v>4889.0</v>
+        <v>5555.0</v>
       </c>
       <c r="L50" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="M50" s="44" t="s">
-        <v>176</v>
+      <c r="M50" s="44" t="n">
+        <v>11010.0</v>
       </c>
       <c r="N50" s="27" t="n">
         <v>0.0</v>
       </c>
-      <c r="O50" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>176</v>
+      <c r="O50" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P50" s="27" t="n">
+        <v>0.0</v>
       </c>
       <c r="Q50" s="27" t="n">
         <v>0.0</v>
@@ -14384,8 +14569,12 @@
       <c r="AA50" s="24" t="n">
         <v>0.0</v>
       </c>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="55"/>
+      <c r="AB50" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC50" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
@@ -14394,76 +14583,80 @@
       </c>
       <c r="D51" s="24"/>
       <c r="E51" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>138</v>
+        <v>171</v>
+      </c>
+      <c r="F51" s="27" t="n">
+        <v>2.0</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H51" s="27">
-        <v>400</v>
-      </c>
-      <c r="I51" s="27">
-        <v>800</v>
-      </c>
-      <c r="J51" s="27">
-        <v>0</v>
-      </c>
-      <c r="K51" s="27">
-        <v>1200</v>
-      </c>
-      <c r="L51" s="27">
-        <v>0</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N51" s="27">
-        <v>0</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q51" s="27">
-        <v>0</v>
-      </c>
-      <c r="R51" s="27">
-        <v>0</v>
-      </c>
-      <c r="S51" s="27">
-        <v>0</v>
-      </c>
-      <c r="T51" s="27">
-        <v>0</v>
-      </c>
-      <c r="U51" s="27">
-        <v>0</v>
-      </c>
-      <c r="V51" s="27">
-        <v>0</v>
-      </c>
-      <c r="W51" s="27">
-        <v>0</v>
-      </c>
-      <c r="X51" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="27" t="n">
+        <v>5455.0</v>
+      </c>
+      <c r="K51" s="27" t="n">
+        <v>5555.0</v>
+      </c>
+      <c r="L51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="44" t="n">
+        <v>11010.0</v>
+      </c>
+      <c r="N51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y51" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z51" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA51" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB51" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC51" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
@@ -14472,76 +14665,80 @@
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>139</v>
+        <v>171</v>
+      </c>
+      <c r="F52" s="27" t="n">
+        <v>3.0</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="H52" s="27">
-        <v>400</v>
-      </c>
-      <c r="I52" s="27">
-        <v>240</v>
-      </c>
-      <c r="J52" s="27">
-        <v>0</v>
-      </c>
-      <c r="K52" s="27">
-        <v>640</v>
-      </c>
-      <c r="L52" s="27">
-        <v>0</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N52" s="27">
-        <v>0</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q52" s="27">
-        <v>0</v>
-      </c>
-      <c r="R52" s="27">
-        <v>0</v>
-      </c>
-      <c r="S52" s="27">
-        <v>0</v>
-      </c>
-      <c r="T52" s="27">
-        <v>0</v>
-      </c>
-      <c r="U52" s="27">
-        <v>0</v>
-      </c>
-      <c r="V52" s="27">
-        <v>0</v>
-      </c>
-      <c r="W52" s="27">
-        <v>0</v>
-      </c>
-      <c r="X52" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="27" t="n">
+        <v>54544.0</v>
+      </c>
+      <c r="K52" s="27" t="n">
+        <v>4444.0</v>
+      </c>
+      <c r="L52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="44" t="n">
+        <v>58988.0</v>
+      </c>
+      <c r="N52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z52" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA52" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB52" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
@@ -14550,76 +14747,80 @@
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>140</v>
+        <v>171</v>
+      </c>
+      <c r="F53" s="27" t="n">
+        <v>3.0</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H53" s="27">
-        <v>2600</v>
-      </c>
-      <c r="I53" s="27">
-        <v>2000</v>
-      </c>
-      <c r="J53" s="27">
-        <v>0</v>
-      </c>
-      <c r="K53" s="27">
-        <v>4600</v>
-      </c>
-      <c r="L53" s="27">
-        <v>0</v>
-      </c>
-      <c r="M53" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N53" s="27">
-        <v>0</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q53" s="27">
-        <v>0</v>
-      </c>
-      <c r="R53" s="27">
-        <v>0</v>
-      </c>
-      <c r="S53" s="27">
-        <v>0</v>
-      </c>
-      <c r="T53" s="27">
-        <v>0</v>
-      </c>
-      <c r="U53" s="27">
-        <v>0</v>
-      </c>
-      <c r="V53" s="27">
-        <v>0</v>
-      </c>
-      <c r="W53" s="27">
-        <v>0</v>
-      </c>
-      <c r="X53" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" s="27" t="n">
+        <v>54544.0</v>
+      </c>
+      <c r="K53" s="27" t="n">
+        <v>4444.0</v>
+      </c>
+      <c r="L53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="44" t="n">
+        <v>58988.0</v>
+      </c>
+      <c r="N53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z53" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB53" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
@@ -14628,76 +14829,80 @@
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>141</v>
+        <v>171</v>
+      </c>
+      <c r="F54" s="27" t="n">
+        <v>4.0</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="27">
-        <v>6600</v>
-      </c>
-      <c r="I54" s="27">
-        <v>6200</v>
-      </c>
-      <c r="J54" s="27">
-        <v>0</v>
-      </c>
-      <c r="K54" s="27">
-        <v>12800</v>
-      </c>
-      <c r="L54" s="27">
-        <v>0</v>
-      </c>
-      <c r="M54" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N54" s="27">
-        <v>0</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q54" s="27">
-        <v>0</v>
-      </c>
-      <c r="R54" s="27">
-        <v>0</v>
-      </c>
-      <c r="S54" s="27">
-        <v>0</v>
-      </c>
-      <c r="T54" s="27">
-        <v>0</v>
-      </c>
-      <c r="U54" s="27">
-        <v>0</v>
-      </c>
-      <c r="V54" s="27">
-        <v>0</v>
-      </c>
-      <c r="W54" s="27">
-        <v>0</v>
-      </c>
-      <c r="X54" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J54" s="27" t="n">
+        <v>36920.0</v>
+      </c>
+      <c r="K54" s="27" t="n">
+        <v>88888.0</v>
+      </c>
+      <c r="L54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="44" t="n">
+        <v>125808.0</v>
+      </c>
+      <c r="N54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z54" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA54" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB54" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC54" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
@@ -14706,76 +14911,80 @@
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>141</v>
+        <v>171</v>
+      </c>
+      <c r="F55" s="27" t="n">
+        <v>4.0</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H55" s="27">
-        <v>600</v>
-      </c>
-      <c r="I55" s="27">
-        <v>200</v>
-      </c>
-      <c r="J55" s="27">
-        <v>0</v>
-      </c>
-      <c r="K55" s="27">
-        <v>800</v>
-      </c>
-      <c r="L55" s="27">
-        <v>0</v>
-      </c>
-      <c r="M55" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N55" s="27">
-        <v>0</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q55" s="27">
-        <v>0</v>
-      </c>
-      <c r="R55" s="27">
-        <v>0</v>
-      </c>
-      <c r="S55" s="27">
-        <v>0</v>
-      </c>
-      <c r="T55" s="27">
-        <v>0</v>
-      </c>
-      <c r="U55" s="27">
-        <v>0</v>
-      </c>
-      <c r="V55" s="27">
-        <v>0</v>
-      </c>
-      <c r="W55" s="27">
-        <v>0</v>
-      </c>
-      <c r="X55" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" s="27" t="n">
+        <v>36920.0</v>
+      </c>
+      <c r="K55" s="27" t="n">
+        <v>88888.0</v>
+      </c>
+      <c r="L55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="44" t="n">
+        <v>125808.0</v>
+      </c>
+      <c r="N55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z55" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA55" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB55" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC55" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="28"/>
@@ -14784,76 +14993,80 @@
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>143</v>
+        <v>171</v>
+      </c>
+      <c r="F56" s="27" t="n">
+        <v>5.0</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H56" s="27">
-        <v>15950</v>
-      </c>
-      <c r="I56" s="27">
-        <v>23600</v>
-      </c>
-      <c r="J56" s="27">
-        <v>0</v>
-      </c>
-      <c r="K56" s="27">
-        <v>39550</v>
-      </c>
-      <c r="L56" s="27">
-        <v>0</v>
-      </c>
-      <c r="M56" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N56" s="27">
-        <v>0</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q56" s="27">
-        <v>0</v>
-      </c>
-      <c r="R56" s="27">
-        <v>0</v>
-      </c>
-      <c r="S56" s="27">
-        <v>0</v>
-      </c>
-      <c r="T56" s="27">
-        <v>0</v>
-      </c>
-      <c r="U56" s="27">
-        <v>0</v>
-      </c>
-      <c r="V56" s="27">
-        <v>0</v>
-      </c>
-      <c r="W56" s="27">
-        <v>0</v>
-      </c>
-      <c r="X56" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="24"/>
-      <c r="AC56" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56" s="27" t="n">
+        <v>11870.0</v>
+      </c>
+      <c r="K56" s="27" t="n">
+        <v>7500.0</v>
+      </c>
+      <c r="L56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="44" t="n">
+        <v>19370.0</v>
+      </c>
+      <c r="N56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y56" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z56" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB56" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC56" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="28"/>
@@ -14862,76 +15075,80 @@
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>144</v>
+        <v>171</v>
+      </c>
+      <c r="F57" s="27" t="n">
+        <v>5.0</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="27">
-        <v>81300</v>
-      </c>
-      <c r="I57" s="27">
-        <v>92920</v>
-      </c>
-      <c r="J57" s="27">
-        <v>2360400</v>
-      </c>
-      <c r="K57" s="27">
-        <v>2534620</v>
-      </c>
-      <c r="L57" s="27">
-        <v>0</v>
-      </c>
-      <c r="M57" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N57" s="27">
-        <v>0</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q57" s="27">
-        <v>0</v>
-      </c>
-      <c r="R57" s="27">
-        <v>0</v>
-      </c>
-      <c r="S57" s="27">
-        <v>0</v>
-      </c>
-      <c r="T57" s="27">
-        <v>0</v>
-      </c>
-      <c r="U57" s="27">
-        <v>0</v>
-      </c>
-      <c r="V57" s="27">
-        <v>0</v>
-      </c>
-      <c r="W57" s="27">
-        <v>0</v>
-      </c>
-      <c r="X57" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="24"/>
-      <c r="AC57" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57" s="27" t="n">
+        <v>11870.0</v>
+      </c>
+      <c r="K57" s="27" t="n">
+        <v>7500.0</v>
+      </c>
+      <c r="L57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="44" t="n">
+        <v>19370.0</v>
+      </c>
+      <c r="N57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z57" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA57" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB57" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC57" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" s="28"/>
@@ -14940,76 +15157,80 @@
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>145</v>
+        <v>172</v>
+      </c>
+      <c r="F58" s="27" t="n">
+        <v>6.0</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="27">
-        <v>0</v>
-      </c>
-      <c r="I58" s="27">
-        <v>0</v>
-      </c>
-      <c r="J58" s="27">
-        <v>0</v>
-      </c>
-      <c r="K58" s="27">
-        <v>0</v>
-      </c>
-      <c r="L58" s="27">
-        <v>0</v>
-      </c>
-      <c r="M58" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N58" s="27">
-        <v>0</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q58" s="27">
-        <v>0</v>
-      </c>
-      <c r="R58" s="27">
-        <v>0</v>
-      </c>
-      <c r="S58" s="27">
-        <v>0</v>
-      </c>
-      <c r="T58" s="27">
-        <v>0</v>
-      </c>
-      <c r="U58" s="27">
-        <v>0</v>
-      </c>
-      <c r="V58" s="27">
-        <v>0</v>
-      </c>
-      <c r="W58" s="27">
-        <v>0</v>
-      </c>
-      <c r="X58" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" s="27" t="n">
+        <v>34970.0</v>
+      </c>
+      <c r="K58" s="27" t="n">
+        <v>64091.0</v>
+      </c>
+      <c r="L58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="44" t="n">
+        <v>99061.0</v>
+      </c>
+      <c r="N58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z58" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA58" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB58" s="24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AC58" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
@@ -15018,76 +15239,80 @@
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>146</v>
+        <v>172</v>
+      </c>
+      <c r="F59" s="27" t="n">
+        <v>1.0</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H59" s="27">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="27">
-        <v>2000</v>
-      </c>
-      <c r="J59" s="27">
-        <v>0</v>
-      </c>
-      <c r="K59" s="27">
-        <v>3000</v>
-      </c>
-      <c r="L59" s="27">
-        <v>0</v>
-      </c>
-      <c r="M59" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N59" s="27">
-        <v>0</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q59" s="27">
-        <v>0</v>
-      </c>
-      <c r="R59" s="27">
-        <v>0</v>
-      </c>
-      <c r="S59" s="27">
-        <v>0</v>
-      </c>
-      <c r="T59" s="27">
-        <v>0</v>
-      </c>
-      <c r="U59" s="27">
-        <v>0</v>
-      </c>
-      <c r="V59" s="27">
-        <v>0</v>
-      </c>
-      <c r="W59" s="27">
-        <v>0</v>
-      </c>
-      <c r="X59" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="24"/>
-      <c r="AC59" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J59" s="27" t="n">
+        <v>9850.0</v>
+      </c>
+      <c r="K59" s="27" t="n">
+        <v>19150.0</v>
+      </c>
+      <c r="L59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="44" t="n">
+        <v>29000.0</v>
+      </c>
+      <c r="N59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z59" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA59" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB59" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC59" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60" spans="2:29" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
@@ -15096,76 +15321,80 @@
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>147</v>
+        <v>172</v>
+      </c>
+      <c r="F60" s="26" t="n">
+        <v>1.0</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H60" s="26">
-        <v>0</v>
-      </c>
-      <c r="I60" s="26">
-        <v>0</v>
-      </c>
-      <c r="J60" s="26">
-        <v>0</v>
-      </c>
-      <c r="K60" s="26">
-        <v>0</v>
-      </c>
-      <c r="L60" s="26">
-        <v>0</v>
-      </c>
-      <c r="M60" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="N60" s="26">
-        <v>0</v>
-      </c>
-      <c r="O60" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="P60" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q60" s="26">
-        <v>0</v>
-      </c>
-      <c r="R60" s="26">
-        <v>0</v>
-      </c>
-      <c r="S60" s="26">
-        <v>0</v>
-      </c>
-      <c r="T60" s="26">
-        <v>0</v>
-      </c>
-      <c r="U60" s="26">
-        <v>0</v>
-      </c>
-      <c r="V60" s="26">
-        <v>0</v>
-      </c>
-      <c r="W60" s="26">
-        <v>0</v>
-      </c>
-      <c r="X60" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="26" t="n">
+        <v>9850.0</v>
+      </c>
+      <c r="K60" s="26" t="n">
+        <v>19150.0</v>
+      </c>
+      <c r="L60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="43" t="n">
+        <v>29000.0</v>
+      </c>
+      <c r="N60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" s="26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z60" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA60" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB60" s="22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC60" s="53" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="23"/>
@@ -15174,256 +15403,2784 @@
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="F61" s="27" t="n">
+        <v>2.0</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H61" s="27">
-        <v>0</v>
-      </c>
-      <c r="I61" s="27">
-        <v>0</v>
-      </c>
-      <c r="J61" s="27">
-        <v>0</v>
-      </c>
-      <c r="K61" s="27">
-        <v>0</v>
-      </c>
-      <c r="L61" s="27">
-        <v>0</v>
-      </c>
-      <c r="M61" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N61" s="27">
-        <v>0</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q61" s="27">
-        <v>0</v>
-      </c>
-      <c r="R61" s="27">
-        <v>0</v>
-      </c>
-      <c r="S61" s="27">
-        <v>0</v>
-      </c>
-      <c r="T61" s="27">
-        <v>0</v>
-      </c>
-      <c r="U61" s="27">
-        <v>0</v>
-      </c>
-      <c r="V61" s="27">
-        <v>0</v>
-      </c>
-      <c r="W61" s="27">
-        <v>0</v>
-      </c>
-      <c r="X61" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="27" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="K61" s="27" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="L61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="44" t="n">
+        <v>2211.0</v>
+      </c>
+      <c r="N61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y61" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z61" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA61" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB61" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC61" s="55" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
       <c r="C62" s="51"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="F62" s="27" t="n">
+        <v>2.0</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="H62" s="27">
-        <v>0</v>
-      </c>
-      <c r="I62" s="27">
-        <v>0</v>
-      </c>
-      <c r="J62" s="27">
-        <v>0</v>
-      </c>
-      <c r="K62" s="27">
-        <v>0</v>
-      </c>
-      <c r="L62" s="27">
-        <v>0</v>
-      </c>
-      <c r="M62" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="N62" s="27">
-        <v>0</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q62" s="27">
-        <v>0</v>
-      </c>
-      <c r="R62" s="27">
-        <v>0</v>
-      </c>
-      <c r="S62" s="27">
-        <v>0</v>
-      </c>
-      <c r="T62" s="27">
-        <v>0</v>
-      </c>
-      <c r="U62" s="27">
-        <v>0</v>
-      </c>
-      <c r="V62" s="27">
-        <v>0</v>
-      </c>
-      <c r="W62" s="27">
-        <v>0</v>
-      </c>
-      <c r="X62" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="24">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="55"/>
+        <v>129</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" s="27" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="K62" s="27" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="L62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="44" t="n">
+        <v>2211.0</v>
+      </c>
+      <c r="N62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" s="27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z62" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA62" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB62" s="24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC62" s="55" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="28"/>
       <c r="C63" s="57"/>
       <c r="D63" s="58"/>
       <c r="E63" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" s="59" t="s">
-        <v>148</v>
+        <v>172</v>
+      </c>
+      <c r="F63" s="59" t="n">
+        <v>3.0</v>
       </c>
       <c r="G63" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="H63" s="59">
-        <v>0</v>
-      </c>
-      <c r="I63" s="59">
-        <v>0</v>
-      </c>
-      <c r="J63" s="59">
-        <v>0</v>
-      </c>
-      <c r="K63" s="59">
-        <v>0</v>
-      </c>
-      <c r="L63" s="59">
-        <v>0</v>
-      </c>
-      <c r="M63" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="N63" s="59">
-        <v>0</v>
-      </c>
-      <c r="O63" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="P63" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q63" s="59">
-        <v>0</v>
-      </c>
-      <c r="R63" s="59">
-        <v>0</v>
-      </c>
-      <c r="S63" s="59">
-        <v>0</v>
-      </c>
-      <c r="T63" s="59">
-        <v>0</v>
-      </c>
-      <c r="U63" s="59">
-        <v>0</v>
-      </c>
-      <c r="V63" s="59">
-        <v>0</v>
-      </c>
-      <c r="W63" s="59">
-        <v>0</v>
-      </c>
-      <c r="X63" s="59">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="59">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="58">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="58">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="58"/>
-      <c r="AC63" s="61"/>
+        <v>129</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="J63" s="59" t="n">
+        <v>1370.0</v>
+      </c>
+      <c r="K63" s="59" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="L63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="60" t="n">
+        <v>3300.0</v>
+      </c>
+      <c r="N63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" s="59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z63" s="58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA63" s="58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB63" s="58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC63" s="61" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B64" s="28"/>
       <c r="C64" s="32"/>
       <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
+      <c r="E64" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J64" s="29" t="n">
+        <v>1370.0</v>
+      </c>
+      <c r="K64" s="29" t="n">
+        <v>1930.0</v>
+      </c>
+      <c r="L64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="45" t="n">
+        <v>3300.0</v>
+      </c>
+      <c r="N64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" s="29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z64" s="28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA64" s="28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB64" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC64" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="F65" t="n" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G65" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="H65" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="I65" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="J65" t="n" s="13">
+        <v>5200.0</v>
+      </c>
+      <c r="K65" t="n" s="13">
+        <v>21600.0</v>
+      </c>
+      <c r="L65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M65" t="n" s="40">
+        <v>26800.0</v>
+      </c>
+      <c r="N65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z65" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA65" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB65" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC65" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="F66" t="n" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G66" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="H66" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="I66" t="s" s="13">
+        <v>133</v>
+      </c>
+      <c r="J66" t="n" s="13">
+        <v>5200.0</v>
+      </c>
+      <c r="K66" t="n" s="13">
+        <v>21600.0</v>
+      </c>
+      <c r="L66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M66" t="n" s="40">
+        <v>26800.0</v>
+      </c>
+      <c r="N66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z66" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA66" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB66" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC66" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="F67" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G67" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="H67" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="I67" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="J67" t="n" s="13">
+        <v>14000.0</v>
+      </c>
+      <c r="K67" t="n" s="13">
+        <v>15600.0</v>
+      </c>
+      <c r="L67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M67" t="n" s="40">
+        <v>29600.0</v>
+      </c>
+      <c r="N67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z67" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA67" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB67" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC67" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="F68" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G68" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="H68" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="I68" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="J68" t="n" s="13">
+        <v>14000.0</v>
+      </c>
+      <c r="K68" t="n" s="13">
+        <v>15600.0</v>
+      </c>
+      <c r="L68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="n" s="40">
+        <v>29600.0</v>
+      </c>
+      <c r="N68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z68" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA68" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB68" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC68" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="F69" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G69" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="H69" t="s" s="13">
+        <v>135</v>
+      </c>
+      <c r="I69" t="s" s="13">
+        <v>135</v>
+      </c>
+      <c r="J69" t="n" s="13">
+        <v>3450.0</v>
+      </c>
+      <c r="K69" t="n" s="13">
+        <v>4700.0</v>
+      </c>
+      <c r="L69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="n" s="40">
+        <v>8150.0</v>
+      </c>
+      <c r="N69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z69" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA69" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB69" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC69" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="F70" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G70" t="s" s="13">
+        <v>129</v>
+      </c>
+      <c r="H70" t="s" s="13">
+        <v>135</v>
+      </c>
+      <c r="I70" t="s" s="13">
+        <v>135</v>
+      </c>
+      <c r="J70" t="n" s="13">
+        <v>3450.0</v>
+      </c>
+      <c r="K70" t="n" s="13">
+        <v>4700.0</v>
+      </c>
+      <c r="L70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="n" s="40">
+        <v>8150.0</v>
+      </c>
+      <c r="N70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z70" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA70" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB70" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC70" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F71" t="n" s="13">
+        <v>99.0</v>
+      </c>
+      <c r="G71" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H71" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="I71" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="J71" t="n" s="13">
+        <v>79426.0</v>
+      </c>
+      <c r="K71" t="n" s="13">
+        <v>86847.0</v>
+      </c>
+      <c r="L71" t="n" s="13">
+        <v>1573533.0</v>
+      </c>
+      <c r="M71" t="n" s="40">
+        <v>1739806.0</v>
+      </c>
+      <c r="N71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z71" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA71" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB71" t="n" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="AC71" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F72" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H72" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="I72" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="J72" t="n" s="13">
+        <v>2000.0</v>
+      </c>
+      <c r="K72" t="n" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="L72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M72" t="n" s="40">
+        <v>3000.0</v>
+      </c>
+      <c r="N72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z72" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA72" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB72" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC72" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F73" t="n" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="G73" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H73" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="I73" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="J73" t="n" s="13">
+        <v>2000.0</v>
+      </c>
+      <c r="K73" t="n" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="L73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M73" t="n" s="40">
+        <v>3000.0</v>
+      </c>
+      <c r="N73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z73" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA73" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB73" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC73" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F74" t="n" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G74" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H74" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="I74" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="J74" t="n" s="13">
+        <v>200.0</v>
+      </c>
+      <c r="K74" t="n" s="13">
+        <v>400.0</v>
+      </c>
+      <c r="L74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M74" t="n" s="40">
+        <v>600.0</v>
+      </c>
+      <c r="N74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y74" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z74" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA74" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB74" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC74" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F75" t="n" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="G75" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H75" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="I75" t="s" s="13">
+        <v>138</v>
+      </c>
+      <c r="J75" t="n" s="13">
+        <v>200.0</v>
+      </c>
+      <c r="K75" t="n" s="13">
+        <v>400.0</v>
+      </c>
+      <c r="L75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M75" t="n" s="40">
+        <v>600.0</v>
+      </c>
+      <c r="N75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y75" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z75" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA75" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB75" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC75" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F76" t="n" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G76" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H76" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="I76" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="J76" t="n" s="13">
+        <v>200.0</v>
+      </c>
+      <c r="K76" t="n" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="L76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M76" t="n" s="40">
+        <v>320.0</v>
+      </c>
+      <c r="N76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y76" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z76" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA76" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB76" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC76" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F77" t="n" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G77" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H77" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="I77" t="s" s="13">
+        <v>139</v>
+      </c>
+      <c r="J77" t="n" s="13">
+        <v>200.0</v>
+      </c>
+      <c r="K77" t="n" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="L77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M77" t="n" s="40">
+        <v>320.0</v>
+      </c>
+      <c r="N77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y77" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z77" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA77" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB77" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC77" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F78" t="n" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G78" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H78" t="s" s="13">
+        <v>140</v>
+      </c>
+      <c r="I78" t="s" s="13">
+        <v>140</v>
+      </c>
+      <c r="J78" t="n" s="13">
+        <v>1300.0</v>
+      </c>
+      <c r="K78" t="n" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="L78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M78" t="n" s="40">
+        <v>2300.0</v>
+      </c>
+      <c r="N78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y78" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z78" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA78" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB78" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC78" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F79" t="n" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G79" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H79" t="s" s="13">
+        <v>140</v>
+      </c>
+      <c r="I79" t="s" s="13">
+        <v>140</v>
+      </c>
+      <c r="J79" t="n" s="13">
+        <v>1300.0</v>
+      </c>
+      <c r="K79" t="n" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="L79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M79" t="n" s="40">
+        <v>2300.0</v>
+      </c>
+      <c r="N79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y79" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z79" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA79" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB79" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC79" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F80" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G80" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H80" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="I80" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="J80" t="n" s="13">
+        <v>22822.0</v>
+      </c>
+      <c r="K80" t="n" s="13">
+        <v>22200.0</v>
+      </c>
+      <c r="L80" t="n" s="13">
+        <v>390000.0</v>
+      </c>
+      <c r="M80" t="n" s="40">
+        <v>435022.0</v>
+      </c>
+      <c r="N80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y80" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z80" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA80" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB80" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC80" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F81" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G81" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H81" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="I81" t="s" s="13">
+        <v>403</v>
+      </c>
+      <c r="J81" t="n" s="13">
+        <v>22222.0</v>
+      </c>
+      <c r="K81" t="n" s="13">
+        <v>22000.0</v>
+      </c>
+      <c r="L81" t="n" s="13">
+        <v>390000.0</v>
+      </c>
+      <c r="M81" t="n" s="40">
+        <v>434222.0</v>
+      </c>
+      <c r="N81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y81" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z81" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA81" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB81" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC81" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F82" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G82" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H82" t="s" s="13">
+        <v>141</v>
+      </c>
+      <c r="I82" t="s" s="13">
+        <v>142</v>
+      </c>
+      <c r="J82" t="n" s="13">
+        <v>600.0</v>
+      </c>
+      <c r="K82" t="n" s="13">
+        <v>200.0</v>
+      </c>
+      <c r="L82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M82" t="n" s="40">
+        <v>800.0</v>
+      </c>
+      <c r="N82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y82" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z82" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA82" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB82" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC82" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F83" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G83" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H83" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="I83" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="J83" t="n" s="13">
+        <v>7975.0</v>
+      </c>
+      <c r="K83" t="n" s="13">
+        <v>11800.0</v>
+      </c>
+      <c r="L83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M83" t="n" s="40">
+        <v>19775.0</v>
+      </c>
+      <c r="N83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y83" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z83" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA83" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB83" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC83" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F84" t="n" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G84" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H84" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="I84" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="J84" t="n" s="13">
+        <v>7975.0</v>
+      </c>
+      <c r="K84" t="n" s="13">
+        <v>11800.0</v>
+      </c>
+      <c r="L84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M84" t="n" s="40">
+        <v>19775.0</v>
+      </c>
+      <c r="N84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y84" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z84" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA84" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB84" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC84" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F85" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G85" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H85" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="I85" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="J85" t="n" s="13">
+        <v>40650.0</v>
+      </c>
+      <c r="K85" t="n" s="13">
+        <v>46460.0</v>
+      </c>
+      <c r="L85" t="n" s="13">
+        <v>1180200.0</v>
+      </c>
+      <c r="M85" t="n" s="40">
+        <v>1267310.0</v>
+      </c>
+      <c r="N85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y85" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z85" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA85" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB85" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC85" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F86" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G86" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H86" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="I86" t="s" s="13">
+        <v>144</v>
+      </c>
+      <c r="J86" t="n" s="13">
+        <v>40650.0</v>
+      </c>
+      <c r="K86" t="n" s="13">
+        <v>46460.0</v>
+      </c>
+      <c r="L86" t="n" s="13">
+        <v>1180200.0</v>
+      </c>
+      <c r="M86" t="n" s="40">
+        <v>1267310.0</v>
+      </c>
+      <c r="N86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y86" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z86" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA86" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB86" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC86" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F87" t="n" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="G87" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H87" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="I87" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="J87" t="n" s="13">
+        <v>2545.0</v>
+      </c>
+      <c r="K87" t="n" s="13">
+        <v>2545.0</v>
+      </c>
+      <c r="L87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M87" t="n" s="40">
+        <v>5090.0</v>
+      </c>
+      <c r="N87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y87" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z87" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA87" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB87" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC87" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F88" t="n" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="G88" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H88" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="I88" t="s" s="13">
+        <v>145</v>
+      </c>
+      <c r="J88" t="n" s="13">
+        <v>2545.0</v>
+      </c>
+      <c r="K88" t="n" s="13">
+        <v>2545.0</v>
+      </c>
+      <c r="L88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M88" t="n" s="40">
+        <v>5090.0</v>
+      </c>
+      <c r="N88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y88" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z88" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA88" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB88" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC88" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F89" t="n" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="G89" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H89" t="s" s="13">
+        <v>146</v>
+      </c>
+      <c r="I89" t="s" s="13">
+        <v>146</v>
+      </c>
+      <c r="J89" t="n" s="13">
+        <v>500.0</v>
+      </c>
+      <c r="K89" t="n" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="L89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M89" t="n" s="40">
+        <v>1500.0</v>
+      </c>
+      <c r="N89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y89" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z89" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA89" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB89" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC89" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F90" t="n" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="G90" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H90" t="s" s="13">
+        <v>146</v>
+      </c>
+      <c r="I90" t="s" s="13">
+        <v>146</v>
+      </c>
+      <c r="J90" t="n" s="13">
+        <v>500.0</v>
+      </c>
+      <c r="K90" t="n" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="L90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M90" t="n" s="40">
+        <v>1500.0</v>
+      </c>
+      <c r="N90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y90" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z90" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA90" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB90" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC90" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F91" t="n" s="13">
+        <v>99.0</v>
+      </c>
+      <c r="G91" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H91" t="s" s="13">
+        <v>366</v>
+      </c>
+      <c r="I91" t="s" s="13">
+        <v>366</v>
+      </c>
+      <c r="J91" t="n" s="13">
+        <v>1234.0</v>
+      </c>
+      <c r="K91" t="n" s="13">
+        <v>322.0</v>
+      </c>
+      <c r="L91" t="n" s="13">
+        <v>3333.0</v>
+      </c>
+      <c r="M91" t="n" s="40">
+        <v>4889.0</v>
+      </c>
+      <c r="N91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y91" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z91" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA91" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB91" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC91" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="F92" t="n" s="13">
+        <v>99.0</v>
+      </c>
+      <c r="G92" t="s" s="13">
+        <v>136</v>
+      </c>
+      <c r="H92" t="s" s="13">
+        <v>366</v>
+      </c>
+      <c r="I92" t="s" s="13">
+        <v>367</v>
+      </c>
+      <c r="J92" t="n" s="13">
+        <v>1234.0</v>
+      </c>
+      <c r="K92" t="n" s="13">
+        <v>322.0</v>
+      </c>
+      <c r="L92" t="n" s="13">
+        <v>3333.0</v>
+      </c>
+      <c r="M92" t="n" s="40">
+        <v>4889.0</v>
+      </c>
+      <c r="N92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y92" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z92" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA92" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB92" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC92" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="F93" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G93" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="H93" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="I93" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="J93" t="n" s="13">
+        <v>6544.0</v>
+      </c>
+      <c r="K93" t="n" s="13">
+        <v>6444.0</v>
+      </c>
+      <c r="L93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M93" t="n" s="40">
+        <v>12988.0</v>
+      </c>
+      <c r="N93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y93" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z93" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA93" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB93" t="n" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="AC93" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="F94" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G94" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="H94" t="s" s="13">
+        <v>148</v>
+      </c>
+      <c r="I94" t="s" s="13">
+        <v>148</v>
+      </c>
+      <c r="J94" t="n" s="13">
+        <v>6544.0</v>
+      </c>
+      <c r="K94" t="n" s="13">
+        <v>6444.0</v>
+      </c>
+      <c r="L94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M94" t="n" s="40">
+        <v>12988.0</v>
+      </c>
+      <c r="N94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y94" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z94" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA94" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB94" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC94" t="n" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="F95" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G95" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="H95" t="s" s="13">
+        <v>148</v>
+      </c>
+      <c r="I95" t="s" s="13">
+        <v>150</v>
+      </c>
+      <c r="J95" t="n" s="13">
+        <v>2000.0</v>
+      </c>
+      <c r="K95" t="n" s="13">
+        <v>2000.0</v>
+      </c>
+      <c r="L95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M95" t="n" s="40">
+        <v>4000.0</v>
+      </c>
+      <c r="N95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y95" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z95" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA95" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB95" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC95" t="n" s="12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="F96" t="n" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G96" t="s" s="13">
+        <v>147</v>
+      </c>
+      <c r="H96" t="s" s="13">
+        <v>148</v>
+      </c>
+      <c r="I96" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="J96" t="n" s="13">
+        <v>4544.0</v>
+      </c>
+      <c r="K96" t="n" s="13">
+        <v>4444.0</v>
+      </c>
+      <c r="L96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="M96" t="n" s="40">
+        <v>8988.0</v>
+      </c>
+      <c r="N96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="O96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="P96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="R96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="S96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="T96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="U96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="V96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="W96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="X96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Y96" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="Z96" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AA96" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AB96" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AC96" t="n" s="12">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
